--- a/logs/orbcomm/orbcomm_alerts_2025-11-26.xlsx
+++ b/logs/orbcomm/orbcomm_alerts_2025-11-26.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="179">
   <si>
     <t>Timestamp</t>
   </si>
@@ -43,427 +43,511 @@
     <t>Raw JSON</t>
   </si>
   <si>
-    <t>2025-11-26T04:57:38.898Z</t>
+    <t>2025-11-26T11:08:18.393Z</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ab18873c-83be-4982-a37a-8b78406c3c1c","EventDtm":"2025-11-26T04:24:59Z","AppDtm":"2025-11-26T04:25:15Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:24:59Z","DeviceID":"JSGA623040285","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.51609,"GPSLongitude":82.981178,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31122","CID":"239136277","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6680994","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:24:59Z","AssetType":"Reefer","AssetID":"TRIU6680994","OEM":"CARRIER","TAmb":28.47,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":3,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":136.06,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04960884","AmpPhA":11.27,"AmpPhB":10.86,"AmpPhC":11.27,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":3.97,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.11,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":408.74,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.04,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":3.69,"TRtn1Q":null,"TRtn2":3.73,"TRtn2Q":null,"TSet":3,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.65,"PctSucVlvQ":null,"TSup1":3.08,"TSup1Q":null,"TSup2":3.13,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-04-27T14:06:01Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:38.954Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"6ad581bd-28ba-4085-b583-737b4557ea59","EventDtm":"2025-11-26T04:25:35Z","AppDtm":"2025-11-26T04:25:53Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:25:35Z","DeviceID":"JSGA622180045","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":26.310519,"GPSLongitude":91.717604,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"56","LAC":"7134","CID":"250551307","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.7,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7151905","LastAssetRunState":"Running"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:38.962Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"66477ed3-4691-460f-bcfa-f8ba27b185aa","EventDtm":"2025-11-26T06:08:10Z","AppDtm":"2025-11-26T04:26:31Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:08:10Z","DeviceID":"JSGA622180057","GPSLockState":"UNLOCKED","GPSSatelliteCount":255,"GPSLastLock":5097,"GPSLatitude":17.244358,"GPSLongitude":78.443679,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"32291","CID":"244550678","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":33.8,"BatteryVoltage":8,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.093Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"38c2fa1e-eb59-43fa-a732-eb9d726f869c","EventDtm":"2025-11-26T04:27:04Z","AppDtm":"2025-11-26T04:27:20Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:27:04Z","DeviceID":"JSGA623040313","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":0,"GPSLatitude":28.364671,"GPSLongitude":75.581375,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"70","LAC":"1009","CID":"144900639","RSSI":"-61","ExtPower":true,"ExtPowerVoltage":32.5,"BatteryVoltage":8,"DeviceTemp":23,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"MORU0322200","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:27:04Z","AssetType":"Reefer","AssetID":"MORU0322200","OEM":"THERMOKING","TAmb":17,"TAmbQ":"asProvided","TUSDA4":3276.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":null,"PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":3276.6,"PSucQ":"unavailable","TDis":3276.6,"TDisQ":"OOR","FreqComp":50,"TSuc":3276.6,"TSucQ":"unavailable","MCond":null,"PCond":3276.6,"PCondQ":"unavailable","TCond":36,"TCondQ":"asProvided","MCtrl":"MaintainCool","SnCtrl":"E001083433","AmpPhA":4.6,"AmpPhB":5.2,"AmpPhC":5.4,"PDis":3276.6,"PDisQ":"unavailable","PctEconVlv":255,"PctEconVlvQ":"notUsed","PctExpVlv":255,"PctExpVlvQ":"notUsed","TEvap":17,"TEvapQ":"asProvided","MCtrl3":"Chilled","PctHtr":255,"PctHtrQ":"notUsed","MEvapFanHS":null,"PctGasVlv":255,"PctGasVlvQ":"notUsed","PctHum":255,"PctHumQ":"OOR","PctHumSet":255,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":380,"VLine2":null,"VLine3":null,"MEvapFanLS":null,"PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":16.2,"TRtn1Q":"asProvided","TRtn2":3276.6,"TRtn2Q":"OOR","TSet":16,"TSetQ":null,"VerSWMajor":"12060800","VerSWMinor":null,"PctSucVlv":255,"PctSucVlvQ":"notUsed","TSup1":16,"TSup1Q":"asProvided","TSup2":16,"TSup2Q":"asProvided","AmpTotalDraw":7.6,"AmpTotalDrawQ":null,"TUSDA1":3276.4,"TUSDA1Q":"OOR","TUSDA2":3276.4,"TUSDA2Q":"OOR","TUSDA3":3276.4,"TUSDA3Q":"OOR","CmhVent":1275,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.102Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9ba02c2b-6ea9-4bab-996f-c0fbd688251c","EventDtm":"2025-11-26T04:27:22Z","AppDtm":"2025-11-26T04:27:37Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:27:22Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":26.606086,"GPSLongitude":80.723609,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.3,"BatteryVoltage":8,"DeviceTemp":21,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.103Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ca6af93a-aad2-46e0-9cd8-89fc1f3b84ee","EventDtm":"2025-11-26T04:27:23Z","AppDtm":"2025-11-26T04:27:46Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:27:23Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":26.606086,"GPSLongitude":80.723609,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":false,"ExtPowerVoltage":33.3,"BatteryVoltage":8,"DeviceTemp":21,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.104Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"26fc1a3e-ba5e-431a-b21e-a94985b9afe3","EventDtm":"2025-11-26T04:33:19Z","AppDtm":"2025-11-26T04:33:43Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:33:19Z","DeviceID":"JSGA623040314","GPSLockState":"UNLOCKED","GPSSatelliteCount":10,"GPSLastLock":50,"GPSLatitude":19.252911,"GPSLongitude":73.016485,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578853","RSSI":"-63","ExtPower":true,"ExtPowerVoltage":28.8,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1036859","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:33:19Z","AssetType":"Reefer","AssetID":"CCLU1036859","OEM":"CARRIER","TAmb":19.11,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":3,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-189.84,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":133.94,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04547502","AmpPhA":10.63,"AmpPhB":10.83,"AmpPhC":10.63,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.87,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":394.91,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.07,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.4,"TRtn1Q":null,"TRtn2":5.52,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5186","VerSWMinor":null,"PctSucVlv":4.9,"PctSucVlvQ":null,"TSup1":8,"TSup1Q":null,"TSup2":4.94,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-11T12:04:15Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.128Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":8,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"487270f6-c9ed-47e0-bab5-e6a87968ef82","EventDtm":"2025-11-26T04:34:06Z","AppDtm":"2025-11-26T04:34:24Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:34:06Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":12.804977,"GPSLongitude":77.662313,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:34:06Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.63,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":95.87,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.19,"AmpPhB":10.95,"AmpPhC":11.19,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.16,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.42,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.74,"TRtn1Q":null,"TRtn2":5.75,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.17,"PctSucVlvQ":null,"TSup1":5,"TSup1Q":null,"TSup2":4.95,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.134Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":9,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e6848b7f-1033-461c-8b88-b79b6f0c2fd1","EventDtm":"2025-11-26T04:35:58Z","AppDtm":"2025-11-26T04:36:20Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:35:58Z","DeviceID":"JSGA623040309","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":16.891995,"GPSLongitude":79.476327,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":30.6,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1045896","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:35:58Z","AssetType":"Reefer","AssetID":"CXRU1045896","OEM":"DAIKIN","TAmb":27.31,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":40,"PSucQ":"asProvided","TDis":74.9,"TDisQ":null,"FreqComp":null,"TSuc":1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":800,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":-2.38,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":394.5,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":4.38,"TRtn1Q":null,"TRtn2":5,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":20.73,"PctSucVlvQ":null,"TSup1":4,"TSup1Q":null,"TSup2":3.9,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T07:47:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.141Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":10,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"b8425e07-dcad-4236-8900-8b97f7ba7325","EventDtm":"2025-11-26T04:36:07Z","AppDtm":"2025-11-26T04:36:26Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:36:07Z","DeviceID":"JSGA622340187","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":16.891782,"GPSLongitude":79.475998,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-69","ExtPower":true,"ExtPowerVoltage":31.5,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1032564","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:36:07Z","AssetType":"Reefer","AssetID":"CXRU1032564","OEM":"DAIKIN","TAmb":27.5,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":60,"PSucQ":"asProvided","TDis":76.4,"TDisQ":null,"FreqComp":null,"TSuc":-7.2,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":870,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":3.81,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":394.5,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.38,"TRtn1Q":null,"TRtn2":40.7,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":16.77,"PctSucVlvQ":null,"TSup1":4.19,"TSup1Q":null,"TSup2":4,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T06:44:58Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.285Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":11,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"b3a3fb0a-a1b7-4637-8737-2b785b760236","EventDtm":"2025-11-26T04:36:44Z","AppDtm":"2025-11-26T04:37:00Z","Events":["ReeferSwitchOff"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:36:44Z","DeviceID":"JSGA621320217","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":26.644503,"GPSLongitude":88.468041,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"51","LAC":"41512","CID":"16323942","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":33.1,"BatteryVoltage":8.1,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1036301","LastAssetRunState":"Standby"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:36:44Z","AssetType":"Reefer","AssetID":"CXRU1036301","OEM":"DAIKIN","TAmb":26.12,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":150,"PSucQ":"asProvided","TDis":59.3,"TDisQ":null,"FreqComp":null,"TSuc":-26.4,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":760,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":31,"PctExpVlvQ":null,"TEvap":-1.19,"TEvapQ":null,"MCtrl3":"UnitOff","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":408.3,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"PowerOff","TRtn1":1.62,"TRtn1Q":null,"TRtn2":2.3,"TRtn2Q":null,"TSet":0,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.89,"PctSucVlvQ":null,"TSup1":0.12,"TSup1Q":null,"TSup2":1.8,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-16T10:29:07Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.306Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":12,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"0475167b-9783-4c34-aded-8791cb0ecd41","EventDtm":"2025-11-26T04:36:51Z","AppDtm":"2025-11-26T04:37:06Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:36:51Z","DeviceID":"JSGA623040187","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":16.892086,"GPSLongitude":79.476269,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-65","ExtPower":true,"ExtPowerVoltage":29.1,"BatteryVoltage":8,"DeviceTemp":37,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"GSOU6384153","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:36:51Z","AssetType":"Reefer","AssetID":"GSOU6384153","OEM":"CARRIER","TAmb":29.79,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-191.41,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":197.34,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04251422","AmpPhA":9.81,"AmpPhB":9.81,"AmpPhC":9.81,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":18.25,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":92.21,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":396.02,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":17.98,"TRtn1Q":null,"TRtn2":17.93,"TRtn2Q":null,"TSet":18.5,"TSetQ":null,"VerSWMajor":"5167","VerSWMinor":null,"PctSucVlv":2,"PctSucVlvQ":null,"TSup1":18.54,"TSup1Q":null,"TSup2":18.57,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-04T10:10:59Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.307Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":13,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"dea467bf-247e-46d7-855b-8140a2f06942","EventDtm":"2025-11-26T04:37:56Z","AppDtm":"2025-11-26T04:38:18Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:37:56Z","DeviceID":"JSGA623040320","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.657864,"GPSLongitude":83.101754,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"232723478","RSSI":"-79","ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":7.9,"DeviceTemp":51,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6712079","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:37:56Z","AssetType":"Reefer","AssetID":"KKFU6712079","OEM":"CARRIER","TAmb":31.42,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":0,"PctCO2SetQ":null,"PSuc":44.76,"PSucQ":null,"TDis":-187.5,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":129.54,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Idle","SnCtrl":"04742313","AmpPhA":0.92,"AmpPhB":1.54,"AmpPhC":0.92,"PDis":146.35,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":21.01,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":408.98,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":0,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":20.75,"TRtn1Q":null,"TRtn2":20.77,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5154","VerSWMinor":null,"PctSucVlv":17.22,"PctSucVlvQ":null,"TSup1":20.49,"TSup1Q":null,"TSup2":20.48,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-03-28T10:32:52Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.310Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":14,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ec818c11-2c85-4805-8b45-d1c94961d190","EventDtm":"2025-11-26T04:38:24Z","AppDtm":"2025-11-26T04:38:43Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:38:24Z","DeviceID":"JSGA623040262","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":12.805004,"GPSLongitude":77.662263,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.5,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681542","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:38:24Z","AssetType":"Reefer","AssetID":"TRIU6681542","OEM":"CARRIER","TAmb":23.15,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":97.37,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04958167","AmpPhA":10.88,"AmpPhB":10.54,"AmpPhC":10.88,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.9,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.37,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":412.53,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.08,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.27,"TRtn1Q":null,"TRtn2":5.27,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":2.92,"PctSucVlvQ":null,"TSup1":4.92,"TSup1Q":null,"TSup2":4.93,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T09:58:17Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.483Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":15,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"2334f893-6d76-4f76-9233-2d9dbdfbee28","EventDtm":"2025-11-26T04:41:58Z","AppDtm":"2025-11-26T04:42:13Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:41:58Z","DeviceID":"JSGA623040298","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.657972,"GPSLongitude":83.10182,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"233290773","RSSI":"-75","ExtPower":true,"ExtPowerVoltage":29.8,"BatteryVoltage":8.1,"DeviceTemp":38,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6994964","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:41:58Z","AssetType":"Reefer","AssetID":"KKFU6994964","OEM":"CARRIER","TAmb":31.11,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":70.27,"PSucQ":null,"TDis":-189.45,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":117.33,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Idle","SnCtrl":"04783085","AmpPhA":0.91,"AmpPhB":1.52,"AmpPhC":0.91,"PDis":117.28,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":21,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0.05,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.6,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":20.75,"TRtn1Q":null,"TRtn2":20.81,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5156","VerSWMinor":null,"PctSucVlv":17.45,"PctSucVlvQ":null,"TSup1":20.38,"TSup1Q":null,"TSup2":20.46,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-11-29T10:30:33Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.492Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":16,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"d629e16c-085a-4097-9542-1d21134f8616","EventDtm":"2025-11-26T04:44:06Z","AppDtm":"2025-11-26T04:44:24Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:44:06Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":12.804934,"GPSLongitude":77.662186,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:44:06Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":30.95,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":93.15,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.34,"AmpPhB":10.86,"AmpPhC":11.34,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.15,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":415.25,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.03,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.72,"TRtn1Q":null,"TRtn2":5.74,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.74,"PctSucVlvQ":null,"TSup1":4.97,"TSup1Q":null,"TSup2":4.91,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.493Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":17,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7c8b0515-e8bc-43e8-827b-12dc34f93cd3","EventDtm":"2025-11-26T04:49:28Z","AppDtm":"2025-11-26T04:49:44Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:49:28Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":26.606029,"GPSLongitude":80.723781,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":true,"ExtPowerVoltage":6.7,"BatteryVoltage":8,"DeviceTemp":22,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.494Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":18,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"fad13758-c536-41fe-bb8c-82fa61d16fc6","EventDtm":"2025-11-26T04:49:28Z","AppDtm":"2025-11-26T04:49:53Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:49:28Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":26.606029,"GPSLongitude":80.723781,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":false,"ExtPowerVoltage":6.7,"BatteryVoltage":8,"DeviceTemp":22,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>{"Sequence":19,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"1599823a-12b4-40a4-8b94-91b916530c6f","EventDtm":"2025-11-26T04:49:45Z","AppDtm":"2025-11-26T04:50:03Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:49:45Z","DeviceID":"JSGA623040284","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":17.53716,"GPSLongitude":78.175697,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"247361559","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":28,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618637","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:49:45Z","AssetType":"Reefer","AssetID":"TRIU6618637","OEM":"CARRIER","TAmb":27.78,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":180.42,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04898885","AmpPhA":9.88,"AmpPhB":10.35,"AmpPhC":9.88,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":-24.19,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":12.93,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":395.19,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":-18.26,"TRtn1Q":null,"TRtn2":-18.29,"TRtn2Q":null,"TSet":-20,"TSetQ":null,"VerSWMajor":"5168","VerSWMinor":null,"PctSucVlv":100,"PctSucVlvQ":null,"TSup1":-32.25,"TSup1Q":null,"TSup2":-31.52,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T10:27:06Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true},{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.506Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":20,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ee1eaaf4-462a-4e9d-bab6-f097ef93eccb","EventDtm":"2025-11-26T04:54:10Z","AppDtm":"2025-11-26T04:54:28Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:54:10Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":12.804878,"GPSLongitude":77.662198,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.5,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:54:10Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.08,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":96.16,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.21,"AmpPhB":10.84,"AmpPhC":11.21,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.15,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":415.37,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.02,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.72,"TRtn1Q":null,"TRtn2":5.74,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.33,"PctSucVlvQ":null,"TSup1":4.98,"TSup1Q":null,"TSup2":4.93,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.509Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":21,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7e4c4d94-ac19-4362-aade-4dc4b66b6a17","EventDtm":"2025-11-26T04:54:53Z","AppDtm":"2025-11-26T04:55:10Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:54:53Z","DeviceID":"JSGA623040278","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":17.533222,"GPSLongitude":78.433323,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"230743318","RSSI":"-61","ExtPower":true,"ExtPowerVoltage":32.2,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1026520","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:54:53Z","AssetType":"Reefer","AssetID":"CXRU1026520","OEM":"DAIKIN","TAmb":25.12,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-30,"PSucQ":"asProvided","TDis":75.3,"TDisQ":null,"FreqComp":null,"TSuc":-31.3,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":790,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":3.5,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100,"PctHumQ":null,"PctHumSet":95,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":411.6,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.81,"TRtn1Q":null,"TRtn2":5.9,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":9.45,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5.1,"TSup2Q":null,"AmpTotalDraw":13,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-31T08:13:55Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:39.513Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":22,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7d6d2c57-c895-494c-ab5a-e6244b8566d2","EventDtm":"2025-11-26T04:57:06Z","AppDtm":"2025-11-26T04:57:22Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:57:06Z","DeviceID":"JSGA623040182","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.539015,"GPSLongitude":78.178368,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"232155661","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":31.6,"BatteryVoltage":8,"DeviceTemp":43,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU5800414","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T04:57:06Z","AssetType":"Reefer","AssetID":"TDRU5800414","OEM":"DAIKIN","TAmb":28.31,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":60,"PSucQ":"asProvided","TDis":80,"TDisQ":null,"FreqComp":null,"TSuc":-14.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":960,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":18,"PctExpVlvQ":null,"TEvap":3.19,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":98.82,"PctHumQ":null,"PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":406.3,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5,"TRtn1Q":null,"TRtn2":5,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":92.38,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":4.1,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.3,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T07:54:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:57:52.058Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":23,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"92550631-8b53-4a6d-ade1-9401bd43fa36","EventDtm":"2025-11-26T04:57:31Z","AppDtm":"2025-11-26T04:57:51Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T04:57:31Z","DeviceID":"JSGA623040321","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":12.816266,"GPSLongitude":77.687121,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"7055","CID":"103377676","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.1,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6617250","LastAssetRunState":"Running"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:00:31.459Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":24,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"8ac3989e-fdad-4ece-90c1-db3fbc1345cf","EventDtm":"2025-11-26T05:00:15Z","AppDtm":"2025-11-26T05:00:30Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:00:15Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":0,"GPSLatitude":26.606082,"GPSLongitude":80.723807,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.6,"BatteryVoltage":8,"DeviceTemp":23,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:01:35.198Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":25,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"98542cbf-04e0-4230-9ace-c2d0038b1154","EventDtm":"2025-11-26T05:01:01Z","AppDtm":"2025-11-26T05:01:18Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:01:01Z","DeviceID":"JSGA623040164","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":21.735656,"GPSLongitude":72.628906,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"98","LAC":"8405","CID":"246992643","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":30.9,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1031878","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:01:01Z","AssetType":"Reefer","AssetID":"CCLU1031878","OEM":"CARRIER","TAmb":27.55,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":15,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":156.03,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04502009","AmpPhA":13.59,"AmpPhB":13.36,"AmpPhC":13.59,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":16.09,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":91.94,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":433.83,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.08,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":15.4,"TRtn1Q":null,"TRtn2":15.36,"TRtn2Q":null,"TSet":15,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":2.99,"PctSucVlvQ":null,"TSup1":14.92,"TSup1Q":null,"TSup2":15.11,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-03-09T09:34:16Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:03:25.102Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":26,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"6e2eebf2-26a2-496e-aacf-5027bdd47163","EventDtm":"2025-11-26T05:03:08Z","AppDtm":"2025-11-26T05:03:24Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:03:08Z","DeviceID":"JSGA621320217","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":0,"GPSLatitude":26.644517,"GPSLongitude":88.467915,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"51","LAC":"41512","CID":"16323862","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":33.1,"BatteryVoltage":8.1,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1036301","LastAssetRunState":"Standby"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:04:25.470Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":27,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"48c04add-d8ef-4ec6-9691-a2556b553467","EventDtm":"2025-11-26T05:04:07Z","AppDtm":"2025-11-26T05:04:24Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:04:07Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":12.804917,"GPSLongitude":77.66223,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:04:07Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.67,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":98.27,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.25,"AmpPhB":10.9,"AmpPhC":11.25,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.2,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":415.85,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.06,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.77,"TRtn1Q":null,"TRtn2":5.78,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.34,"PctSucVlvQ":null,"TSup1":5.06,"TSup1Q":null,"TSup2":4.99,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:05:34.333Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":28,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"367d7205-7dbd-407c-bcd1-c074b2c2a2e2","EventDtm":"2025-11-26T05:05:20Z","AppDtm":"2025-11-26T05:05:33Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:05:20Z","DeviceID":"JSGA621320194","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":16.824777,"GPSLongitude":78.131539,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31204","CID":"255654657","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.9,"BatteryVoltage":8,"DeviceTemp":48,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1186425","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:05:20Z","AssetType":"Reefer","AssetID":"CXRU1186425","OEM":"DAIKIN","TAmb":31.69,"TAmbQ":null,"TUSDA4":-46.5,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":0,"PSucQ":"asProvided","TDis":74,"TDisQ":null,"FreqComp":null,"TSuc":-24.6,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":1040,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":37,"PctExpVlvQ":null,"TEvap":9.5,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":399.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.31,"TRtn1Q":null,"TRtn2":5.1,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.98,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5.5,"TSup2Q":null,"AmpTotalDraw":15,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.5,"TUSDA1Q":"OOR","TUSDA2":-46.5,"TUSDA2Q":"OOR","TUSDA3":-46.5,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-30T05:28:13Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:19:24.011Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"60ce557d-9013-45a6-9754-f379f73f67f2","EventDtm":"2025-11-26T05:19:05Z","AppDtm":"2025-11-26T05:19:23Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:19:05Z","DeviceID":"JSGA623040304","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":15.479441,"GPSLongitude":73.969651,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6934","CID":"242082151","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":29.1,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681434","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:19:05Z","AssetType":"Reefer","AssetID":"TRIU6681434","OEM":"CARRIER","TAmb":27.98,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":154.52,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04959272","AmpPhA":11.06,"AmpPhB":10.24,"AmpPhC":11.06,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.14,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":85.64,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.42,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.25,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.72,"TRtn1Q":null,"TRtn2":5.73,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":8.48,"PctSucVlvQ":null,"TSup1":4.76,"TSup1Q":null,"TSup2":4.78,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-08-19T12:53:23Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:19:58.906Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"dff8316c-ea3a-49a8-9128-28ef662285ff","EventDtm":"2025-11-26T05:19:45Z","AppDtm":"2025-11-26T05:19:58Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:19:45Z","DeviceID":"JSGA623040302","GPSLockState":"LOCKED","GPSSatelliteCount":9,"GPSLastLock":4,"GPSLatitude":19.252855,"GPSLongitude":73.016468,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578853","RSSI":"-65","ExtPower":true,"ExtPowerVoltage":28.5,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681882","LastAssetRunState":"Running"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:20:50.724Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"6a3ef72e-e7d1-488a-95ff-19af33e4d574","EventDtm":"2025-11-26T05:20:31Z","AppDtm":"2025-11-26T05:20:49Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:20:31Z","DeviceID":"JSGA622180052","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.547785,"GPSLongitude":78.380563,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.1,"BatteryVoltage":8.1,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:21:41.908Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7dbeefdb-a220-409f-835c-8220a2181151","EventDtm":"2025-11-26T05:21:22Z","AppDtm":"2025-11-26T05:21:40Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:21:22Z","DeviceID":"JSGA623040188","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":17.533255,"GPSLongitude":78.433203,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"244342551","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":32.4,"BatteryVoltage":8.1,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"HDMU5221979","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:21:22Z","AssetType":"Reefer","AssetID":"HDMU5221979","OEM":"DAIKIN","TAmb":27.62,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":250,"PSucQ":"asProvided","TDis":55.1,"TDisQ":null,"FreqComp":null,"TSuc":16.6,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":820,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":18,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"ThermoOff","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":16.14,"PctHumQ":null,"PctHumSet":65,"PctHumSetQ":"off","FreqLine":50,"FreqLineQ":null,"VLine1":414.9,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"FanReduction","TRtn1":5.69,"TRtn1Q":null,"TRtn2":135.9,"TRtn2Q":"OOR","TSet":5,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":156.1,"PctSucVlvQ":null,"TSup1":5.31,"TSup1Q":null,"TSup2":5.2,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.3,"TUSDA1Q":"OOR","TUSDA2":-46.2,"TUSDA2Q":"OOR","TUSDA3":-46.3,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-02-13T11:13:57Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true},{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:24:15.495Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"f4a5003f-35a4-42a5-8ce9-8be4deee754c","EventDtm":"2025-11-26T05:23:57Z","AppDtm":"2025-11-26T05:24:14Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:23:57Z","DeviceID":"JSGA623040331","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.516241,"GPSLongitude":82.962309,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31843","CID":"240957964","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.6,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"BMOU9782197","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:23:57Z","AssetType":"Reefer","AssetID":"BMOU9782197","OEM":"DAIKIN","TAmb":28.69,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":60,"PSucQ":"asProvided","TDis":78.7,"TDisQ":null,"FreqComp":null,"TSuc":-10.5,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":860,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":57,"PctExpVlvQ":null,"TEvap":22.19,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":60,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":382,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":24.6,"TRtn2Q":null,"TSet":23,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.28,"PctSucVlvQ":null,"TSup1":23.12,"TSup1Q":null,"TSup2":23.1,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-09-09T22:31:45Z","PTIResult":"Unknown","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:24:30.904Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9af457fd-ebd9-4538-b5c8-2d1efc079de1","EventDtm":"2025-11-26T05:24:13Z","AppDtm":"2025-11-26T05:24:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:24:13Z","DeviceID":"JSGA623040329","GPSLockState":"UNLOCKED","GPSSatelliteCount":8,"GPSLastLock":28,"GPSLatitude":17.548002,"GPSLongitude":78.380342,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":"-59","ExtPower":true,"ExtPowerVoltage":32.6,"BatteryVoltage":8,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:24:31.020Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"81a9ddd7-f092-4665-b9f1-8dc70d36e5fa","EventDtm":"2025-11-26T05:24:12Z","AppDtm":"2025-11-26T05:24:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:24:12Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":12.804964,"GPSLongitude":77.662212,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:24:12Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.38,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":95.9,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.25,"AmpPhB":10.82,"AmpPhC":11.25,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.17,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.2,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.06,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.73,"TRtn1Q":null,"TRtn2":5.75,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.85,"PctSucVlvQ":null,"TSup1":5.05,"TSup1Q":null,"TSup2":4.99,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:25:05.654Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":8,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"1874074b-89cd-4038-b104-a23e6d51c187","EventDtm":"2025-11-26T05:24:46Z","AppDtm":"2025-11-26T05:25:04Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:24:46Z","DeviceID":"JSGA623040285","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":17.516067,"GPSLongitude":82.981252,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31122","CID":"239136277","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":30.1,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6680994","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:24:46Z","AssetType":"Reefer","AssetID":"TRIU6680994","OEM":"CARRIER","TAmb":29.38,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":3,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.09,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":131.48,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04960884","AmpPhA":11.52,"AmpPhB":10.89,"AmpPhC":11.52,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":4,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.11,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":408.7,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.02,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":3.71,"TRtn1Q":null,"TRtn2":3.75,"TRtn2Q":null,"TSet":3,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.3,"PctSucVlvQ":null,"TSup1":3.01,"TSup1Q":null,"TSup2":3.07,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-04-27T14:06:01Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:25:55.556Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":9,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"26609507-d9f4-494b-99bc-7a2f5d22ccf7","EventDtm":"2025-11-26T05:25:37Z","AppDtm":"2025-11-26T05:25:54Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:25:37Z","DeviceID":"JSGA622180045","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":26.310555,"GPSLongitude":91.717455,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"56","LAC":"7134","CID":"250551307","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.7,"BatteryVoltage":8,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7151905","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:25:37Z","AssetType":"Reefer","AssetID":"TDRU7151905","OEM":"DAIKIN","TAmb":27.31,"TAmbQ":null,"TUSDA4":-46.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":70,"PSucQ":"asProvided","TDis":76.5,"TDisQ":null,"FreqComp":null,"TSuc":-12.1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":940,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":61,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":397.1,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":5.1,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":91.46,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":3.9,"TSup2Q":null,"AmpTotalDraw":10,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true},{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:26:25.845Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":10,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"a4c38d34-46b8-4ea2-bc98-6332f1db3454","EventDtm":"2025-11-26T07:08:05Z","AppDtm":"2025-11-26T05:26:25Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T07:08:05Z","DeviceID":"JSGA622180057","GPSLockState":"UNLOCKED","GPSSatelliteCount":255,"GPSLastLock":5157,"GPSLatitude":17.244358,"GPSLongitude":78.443679,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"32291","CID":"244550678","RSSI":"-77","ExtPower":true,"ExtPowerVoltage":33.7,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:27:31.035Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":11,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7a618298-2d1d-4e2c-a7c6-c1306acc2333","EventDtm":"2025-11-26T05:27:13Z","AppDtm":"2025-11-26T05:27:29Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:27:13Z","DeviceID":"JSGA623040313","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":28.364765,"GPSLongitude":75.58133,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"70","LAC":"1009","CID":"144900639","RSSI":"-61","ExtPower":true,"ExtPowerVoltage":33,"BatteryVoltage":8,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"MORU0322200","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:27:13Z","AssetType":"Reefer","AssetID":"MORU0322200","OEM":"THERMOKING","TAmb":19,"TAmbQ":"asProvided","TUSDA4":3276.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":null,"PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":3276.6,"PSucQ":"unavailable","TDis":3276.6,"TDisQ":"OOR","FreqComp":50,"TSuc":3276.6,"TSucQ":"unavailable","MCond":null,"PCond":3276.6,"PCondQ":"unavailable","TCond":34,"TCondQ":"asProvided","MCtrl":"MaintainCool","SnCtrl":"E001083433","AmpPhA":7,"AmpPhB":7.9,"AmpPhC":8,"PDis":3276.6,"PDisQ":"unavailable","PctEconVlv":255,"PctEconVlvQ":"notUsed","PctExpVlv":255,"PctExpVlvQ":"notUsed","TEvap":17,"TEvapQ":"asProvided","MCtrl3":"Chilled","PctHtr":255,"PctHtrQ":"notUsed","MEvapFanHS":null,"PctGasVlv":255,"PctGasVlvQ":"notUsed","PctHum":255,"PctHumQ":"OOR","PctHumSet":255,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":388,"VLine2":null,"VLine3":null,"MEvapFanLS":null,"PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":16.3,"TRtn1Q":"asProvided","TRtn2":3276.6,"TRtn2Q":"OOR","TSet":16,"TSetQ":null,"VerSWMajor":"12060800","VerSWMinor":null,"PctSucVlv":255,"PctSucVlvQ":"notUsed","TSup1":16,"TSup1Q":"asProvided","TSup2":16,"TSup2Q":"asProvided","AmpTotalDraw":5.3,"AmpTotalDrawQ":null,"TUSDA1":3276.4,"TUSDA1Q":"OOR","TUSDA2":3276.4,"TUSDA2Q":"OOR","TUSDA3":3276.4,"TUSDA3Q":"OOR","CmhVent":1275,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.234Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"df5c0794-e883-4a2a-bc54-834091c4f5f4","EventDtm":"2025-11-26T05:33:31Z","AppDtm":"2025-11-26T05:33:55Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:33:31Z","DeviceID":"JSGA623040314","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":1,"GPSLatitude":19.252874,"GPSLongitude":73.016524,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578853","RSSI":"-63","ExtPower":true,"ExtPowerVoltage":28.5,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1036859","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:33:31Z","AssetType":"Reefer","AssetID":"CCLU1036859","OEM":"CARRIER","TAmb":21.91,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":3,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-188.28,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":136.09,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04547502","AmpPhA":10.05,"AmpPhB":10.32,"AmpPhC":10.05,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.94,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":392.24,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.09,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.43,"TRtn1Q":null,"TRtn2":5.56,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5186","VerSWMinor":null,"PctSucVlv":3.82,"PctSucVlvQ":null,"TSup1":8.15,"TSup1Q":null,"TSup2":5.09,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-11T12:04:15Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.249Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"3560905b-bf60-4999-8108-00bf74e004ae","EventDtm":"2025-11-26T05:34:08Z","AppDtm":"2025-11-26T05:34:25Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:34:08Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":12.805023,"GPSLongitude":77.662168,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:34:08Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.15,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":100.8,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.49,"AmpPhB":10.86,"AmpPhC":11.49,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.21,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":415.11,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.01,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.79,"TRtn1Q":null,"TRtn2":5.8,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.4,"PctSucVlvQ":null,"TSup1":4.99,"TSup1Q":null,"TSup2":4.94,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.255Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"a05dc7e2-1f5a-4848-b5d1-94442f99a806","EventDtm":"2025-11-26T05:36:01Z","AppDtm":"2025-11-26T05:36:22Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:36:01Z","DeviceID":"JSGA623040309","GPSLockState":"LOCKED","GPSSatelliteCount":19,"GPSLastLock":0,"GPSLatitude":16.89203,"GPSLongitude":79.476173,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":30.9,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1045896","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:36:01Z","AssetType":"Reefer","AssetID":"CXRU1045896","OEM":"DAIKIN","TAmb":28.38,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-40,"PSucQ":"asProvided","TDis":84.3,"TDisQ":null,"FreqComp":null,"TSuc":-26.5,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":810,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":-3,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":395.1,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":4.38,"TRtn1Q":null,"TRtn2":5,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.28,"PctSucVlvQ":null,"TSup1":4,"TSup1Q":null,"TSup2":3.9,"TSup2Q":null,"AmpTotalDraw":10,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T07:47:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.259Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e6d719cd-f4d2-4750-b248-a63b618398ab","EventDtm":"2025-11-26T05:36:13Z","AppDtm":"2025-11-26T05:36:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:36:13Z","DeviceID":"JSGA622340187","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":16.891802,"GPSLongitude":79.475989,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-77","ExtPower":true,"ExtPowerVoltage":31.5,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1032564","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:36:13Z","AssetType":"Reefer","AssetID":"CXRU1032564","OEM":"DAIKIN","TAmb":28.81,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":60,"PSucQ":"asProvided","TDis":74.7,"TDisQ":null,"FreqComp":null,"TSuc":-9.7,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":920,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":3.81,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":397.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.62,"TRtn1Q":null,"TRtn2":40.7,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":17.99,"PctSucVlvQ":null,"TSup1":4.19,"TSup1Q":null,"TSup2":4,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T06:44:58Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.435Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"2fed553a-8dc4-4f96-ad28-f3d7910ad1bd","EventDtm":"2025-11-26T05:36:59Z","AppDtm":"2025-11-26T05:37:13Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:36:59Z","DeviceID":"JSGA623040187","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":16.892097,"GPSLongitude":79.476207,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-65","ExtPower":true,"ExtPowerVoltage":29.1,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"GSOU6384153","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:36:59Z","AssetType":"Reefer","AssetID":"GSOU6384153","OEM":"CARRIER","TAmb":29.96,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-191.02,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":136.23,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04251422","AmpPhA":10.68,"AmpPhB":10.61,"AmpPhC":10.68,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":18.15,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":92.2,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":49,"FreqLineQ":null,"VLine1":395.77,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":17.92,"TRtn1Q":null,"TRtn2":17.86,"TRtn2Q":null,"TSet":18.5,"TSetQ":null,"VerSWMajor":"5167","VerSWMinor":null,"PctSucVlv":2,"PctSucVlvQ":null,"TSup1":18.5,"TSup1Q":null,"TSup2":18.53,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-04T10:10:59Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.447Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ba05ab11-e501-4bf9-8a08-05561c748cb8","EventDtm":"2025-11-26T05:38:05Z","AppDtm":"2025-11-26T05:38:26Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:38:05Z","DeviceID":"JSGA623040320","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":17.657893,"GPSLongitude":83.101779,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"232723478","RSSI":"-79","ExtPower":true,"ExtPowerVoltage":30.2,"BatteryVoltage":7.9,"DeviceTemp":52,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6712079","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:38:05Z","AssetType":"Reefer","AssetID":"KKFU6712079","OEM":"CARRIER","TAmb":33.33,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":0,"PctCO2SetQ":null,"PSuc":62.82,"PSucQ":null,"TDis":-191.41,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":142.32,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Idle","SnCtrl":"04742313","AmpPhA":0.92,"AmpPhB":1.55,"AmpPhC":0.92,"PDis":156.73,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":20.78,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":412.85,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":0,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":20.5,"TRtn1Q":null,"TRtn2":20.54,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5154","VerSWMinor":null,"PctSucVlv":15.65,"PctSucVlvQ":null,"TSup1":19.96,"TSup1Q":null,"TSup2":20,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-03-28T10:32:52Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.449Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9c6eb4d1-444a-46a5-b4c7-640dd677274f","EventDtm":"2025-11-26T05:38:30Z","AppDtm":"2025-11-26T05:38:48Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:38:30Z","DeviceID":"JSGA623040262","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":12.805078,"GPSLongitude":77.662221,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681542","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:38:30Z","AssetType":"Reefer","AssetID":"TRIU6681542","OEM":"CARRIER","TAmb":26.6,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":183.5,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04958167","AmpPhA":10.33,"AmpPhB":10.77,"AmpPhC":10.33,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.37,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.36,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.01,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.37,"TRtn1Q":null,"TRtn2":5.37,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.61,"PctSucVlvQ":null,"TSup1":4.99,"TSup1Q":null,"TSup2":5.01,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T09:58:17Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.451Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":8,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"8d9c400e-d2e3-4a5a-9029-0c8716030ab3","EventDtm":"2025-11-26T05:41:46Z","AppDtm":"2025-11-26T05:42:00Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:41:46Z","DeviceID":"JSGA623040298","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":17.657893,"GPSLongitude":83.101743,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"233290773","RSSI":"-77","ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8.1,"DeviceTemp":39,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6994964","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:41:46Z","AssetType":"Reefer","AssetID":"KKFU6994964","OEM":"CARRIER","TAmb":33.05,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":70.54,"PSucQ":null,"TDis":-189.84,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":126.4,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Idle","SnCtrl":"04783085","AmpPhA":0.92,"AmpPhB":1.54,"AmpPhC":0.92,"PDis":126.39,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":21.04,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0.06,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.26,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":20.8,"TRtn1Q":null,"TRtn2":20.86,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5156","VerSWMinor":null,"PctSucVlv":15.87,"PctSucVlvQ":null,"TSup1":20.42,"TSup1Q":null,"TSup2":20.5,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-11-29T10:30:33Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.456Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":9,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"c9bb76f1-f48d-4b2d-94ac-2fe3819bb6de","EventDtm":"2025-11-26T05:44:08Z","AppDtm":"2025-11-26T05:44:25Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:44:08Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":12.804892,"GPSLongitude":77.662228,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.5,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:44:08Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.39,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":95.54,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.31,"AmpPhB":10.91,"AmpPhC":11.31,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.14,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":416.16,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.06,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.7,"TRtn1Q":null,"TRtn2":5.72,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.51,"PctSucVlvQ":null,"TSup1":4.96,"TSup1Q":null,"TSup2":4.9,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.459Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":10,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"60b4f840-eda9-4364-ba41-4aa14d377d50","EventDtm":"2025-11-26T05:49:43Z","AppDtm":"2025-11-26T05:50:01Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:49:43Z","DeviceID":"JSGA623040284","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.537095,"GPSLongitude":78.175549,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"247361559","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":27.9,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618637","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T05:49:43Z","AssetType":"Reefer","AssetID":"TRIU6618637","OEM":"CARRIER","TAmb":28.22,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":162.79,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04898885","AmpPhA":9.1,"AmpPhB":10.51,"AmpPhC":9.1,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":-24.01,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":11.84,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":395.86,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":-18.05,"TRtn1Q":null,"TRtn2":-18.08,"TRtn2Q":null,"TSet":-20,"TSetQ":null,"VerSWMajor":"5168","VerSWMinor":null,"PctSucVlv":100,"PctSucVlvQ":null,"TSup1":-32.22,"TSup1Q":null,"TSup2":-31.54,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T10:27:06Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true},{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:52:40.462Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":11,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"aba4536a-9e63-4d68-9aa4-a2d9cd22f2f7","EventDtm":"2025-11-26T05:50:00Z","AppDtm":"2025-11-26T05:50:19Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:50:00Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":26.606181,"GPSLongitude":80.723587,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.2,"BatteryVoltage":8,"DeviceTemp":25,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T05:57:54.044Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"8cef6619-0b77-47cf-b04d-74242094e42f","EventDtm":"2025-11-26T05:57:36Z","AppDtm":"2025-11-26T05:57:53Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T05:57:36Z","DeviceID":"JSGA623040321","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":12.816434,"GPSLongitude":77.687466,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"7055","CID":"103377676","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6617250","LastAssetRunState":"Running"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.420Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9fba3d24-9956-4110-94a9-7ab1603187aa","EventDtm":"2025-11-26T06:00:57Z","AppDtm":"2025-11-26T06:01:16Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:00:57Z","DeviceID":"JSGA623040164","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":21.735699,"GPSLongitude":72.628857,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"98","LAC":"8405","CID":"246992643","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":31,"BatteryVoltage":8,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1031878","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:00:57Z","AssetType":"Reefer","AssetID":"CCLU1031878","OEM":"CARRIER","TAmb":30.24,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":15,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":174.28,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04502009","AmpPhA":13.41,"AmpPhB":13.26,"AmpPhC":13.41,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":16.09,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":91.37,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":435.26,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.25,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":15.4,"TRtn1Q":null,"TRtn2":15.35,"TRtn2Q":null,"TSet":15,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":1.72,"PctSucVlvQ":null,"TSup1":14.84,"TSup1Q":null,"TSup2":15.01,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-03-09T09:34:16Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.469Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"805a718c-262a-4caf-8d7f-7dab679c3cb9","EventDtm":"2025-11-26T06:03:13Z","AppDtm":"2025-11-26T06:03:28Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:03:13Z","DeviceID":"JSGA621320217","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":26.644585,"GPSLongitude":88.468034,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"51","LAC":"41512","CID":"16323862","RSSI":"-55","ExtPower":true,"ExtPowerVoltage":33.1,"BatteryVoltage":8.1,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1036301","LastAssetRunState":"Standby"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.479Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"a51f5902-f7d8-4054-aeb2-3bbeae8c6158","EventDtm":"2025-11-26T06:04:14Z","AppDtm":"2025-11-26T06:04:31Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:04:14Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":12.805082,"GPSLongitude":77.662206,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:04:14Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.55,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":107.45,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.21,"AmpPhB":10.98,"AmpPhC":11.21,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.21,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.83,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.01,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.77,"TRtn1Q":null,"TRtn2":5.8,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.44,"PctSucVlvQ":null,"TSup1":5.02,"TSup1Q":null,"TSup2":4.95,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.492Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"497cd7d9-4855-40b1-bf03-c6abfdb86f7b","EventDtm":"2025-11-26T06:05:22Z","AppDtm":"2025-11-26T06:05:34Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:05:22Z","DeviceID":"JSGA621320194","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":16.824868,"GPSLongitude":78.13145,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31204","CID":"255654657","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.7,"BatteryVoltage":8,"DeviceTemp":49,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1186425","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:05:22Z","AssetType":"Reefer","AssetID":"CXRU1186425","OEM":"DAIKIN","TAmb":34,"TAmbQ":null,"TUSDA4":-46.5,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":10,"PSucQ":"asProvided","TDis":75.2,"TDisQ":null,"FreqComp":null,"TSuc":-22.4,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":1150,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":37,"PctExpVlvQ":null,"TEvap":9.62,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":397.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.38,"TRtn1Q":null,"TRtn2":5.2,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.59,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5.5,"TSup2Q":null,"AmpTotalDraw":15,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.5,"TUSDA1Q":"OOR","TUSDA2":-46.5,"TUSDA2Q":"OOR","TUSDA3":-46.5,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-30T05:28:13Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.496Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"5aeb0441-8979-4db5-8e2e-8a893f944b68","EventDtm":"2025-11-26T06:09:20Z","AppDtm":"2025-11-26T06:09:40Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:09:20Z","DeviceID":"JSGA623040295","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":17.679101,"GPSLongitude":78.720117,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19328","CID":"254963202","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.4,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CGMU2991560","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:09:20Z","AssetType":"Reefer","AssetID":"CGMU2991560","OEM":"CARRIER","TAmb":27.15,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":4,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-182.81,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":144.7,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04540798","AmpPhA":10.96,"AmpPhB":10.68,"AmpPhC":10.96,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.25,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":100,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":408.67,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.09,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":4.77,"TRtn1Q":null,"TRtn2":4.77,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.73,"PctSucVlvQ":null,"TSup1":3.91,"TSup1Q":null,"TSup2":3.94,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-11T07:51:42Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.620Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"8b1373a5-9d0f-4c0e-8d51-f591d006f7c7","EventDtm":"2025-11-26T06:09:45Z","AppDtm":"2025-11-26T06:10:02Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:09:45Z","DeviceID":"JSGA623040290","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":17.661633,"GPSLongitude":83.089119,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"232671233","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7153256","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:09:45Z","AssetType":"Reefer","AssetID":"TDRU7153256","OEM":"DAIKIN","TAmb":30.62,"TAmbQ":null,"TUSDA4":-72.8,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":50,"PSucQ":"asProvided","TDis":46.7,"TDisQ":null,"FreqComp":null,"TSuc":-13.4,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":1080,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":18,"PctExpVlvQ":null,"TEvap":3.38,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":366.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.38,"TRtn1Q":null,"TRtn2":5.3,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C1","VerSWMinor":null,"PctSucVlv":100.3,"PctSucVlvQ":"OOR","TSup1":4.12,"TSup1Q":null,"TSup2":4,"TSup2Q":null,"AmpTotalDraw":14,"AmpTotalDrawQ":"asProvided","TUSDA1":-72.8,"TUSDA1Q":"OOR","TUSDA2":-72.7,"TUSDA2Q":"OOR","TUSDA3":-72.8,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-04-24T05:53:24Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.664Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"b031aeff-fa8b-4160-bd47-44ce73581fa2","EventDtm":"2025-11-26T06:11:18Z","AppDtm":"2025-11-26T06:11:34Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:11:18Z","DeviceID":"JSGA623040277","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":17.572203,"GPSLongitude":78.515174,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19327","CID":"235323415","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":32.8,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"DFOU6120281","LastAssetRunState":"Running"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.668Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":8,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ee9aff9d-0cf1-4565-8577-17766eb195c7","EventDtm":"2025-11-26T06:14:09Z","AppDtm":"2025-11-26T06:14:26Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:14:09Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":12.804992,"GPSLongitude":77.662216,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:14:09Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.48,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":99.08,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.48,"AmpPhB":10.95,"AmpPhC":11.48,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.14,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":416.02,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.1,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.72,"TRtn1Q":null,"TRtn2":5.73,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.82,"PctSucVlvQ":null,"TSup1":4.9,"TSup1Q":null,"TSup2":4.83,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.671Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":9,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"377e3016-aab0-4571-b2fe-86c23066f14f","EventDtm":"2025-11-26T06:19:10Z","AppDtm":"2025-11-26T06:19:27Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:19:10Z","DeviceID":"JSGA623040304","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":15.479479,"GPSLongitude":73.969728,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6934","CID":"242082151","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681434","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:19:10Z","AssetType":"Reefer","AssetID":"TRIU6681434","OEM":"CARRIER","TAmb":28.82,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":149.28,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04959272","AmpPhA":10.95,"AmpPhB":10.1,"AmpPhC":10.95,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.92,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":87.66,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":418.95,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.06,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.52,"TRtn1Q":null,"TRtn2":5.54,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.32,"PctSucVlvQ":null,"TSup1":4.93,"TSup1Q":null,"TSup2":4.95,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-08-19T12:53:23Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:21:39.680Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":10,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7d0f6bc2-ef73-4ce7-9a3b-fcaec9c62d5d","EventDtm":"2025-11-26T06:20:00Z","AppDtm":"2025-11-26T06:20:18Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:20:00Z","DeviceID":"JSGA623040302","GPSLockState":"LOCKED","GPSSatelliteCount":9,"GPSLastLock":0,"GPSLatitude":19.252891,"GPSLongitude":73.016492,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578853","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":28.8,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681882","LastAssetRunState":"Running"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:24:39.417Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"5df690e3-c988-4cfa-a976-9cc567914bfe","EventDtm":"2025-11-26T06:20:38Z","AppDtm":"2025-11-26T06:20:56Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:20:38Z","DeviceID":"JSGA622180052","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.547773,"GPSLongitude":78.380489,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.3,"BatteryVoltage":8.1,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:24:39.445Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"da09b026-d1e9-4f2b-bed7-bf8ae52b61e4","EventDtm":"2025-11-26T06:21:24Z","AppDtm":"2025-11-26T06:21:42Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:21:24Z","DeviceID":"JSGA623040188","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.533223,"GPSLongitude":78.433006,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"244342551","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":32.6,"BatteryVoltage":8.1,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"HDMU5221979","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:21:24Z","AssetType":"Reefer","AssetID":"HDMU5221979","OEM":"DAIKIN","TAmb":29.5,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":250,"PSucQ":"asProvided","TDis":60.4,"TDisQ":null,"FreqComp":null,"TSuc":22.5,"TSucQ":null,"MCond":"Off","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":880,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":5,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"ThermoOff","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"Off","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":16.14,"PctHumQ":null,"PctHumSet":65,"PctHumSetQ":"off","FreqLine":50,"FreqLineQ":null,"VLine1":417.5,"VLine2":null,"VLine3":null,"MEvapFanLS":"On","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"FanReduction","TRtn1":5.88,"TRtn1Q":null,"TRtn2":136.4,"TRtn2Q":"OOR","TSet":5,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":156.1,"PctSucVlvQ":null,"TSup1":5.31,"TSup1Q":null,"TSup2":5.3,"TSup2Q":null,"AmpTotalDraw":0,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.3,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.3,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-02-13T11:13:57Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true},{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"346f2372-6f7c-4b3b-ad27-1642ab900d2e","EventDtm":"2025-11-26T06:22:38Z","AppDtm":"2025-11-26T06:22:52Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:22:38Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":0,"GPSLatitude":26.606096,"GPSLongitude":80.723681,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":false,"ExtPowerVoltage":7.4,"BatteryVoltage":8,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:40.466Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e532d4a3-e5b2-49ae-8a12-ee34c25cf343","EventDtm":"2025-11-26T06:23:57Z","AppDtm":"2025-11-26T06:24:20Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:23:57Z","DeviceID":"JSGA623040331","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.516213,"GPSLongitude":82.962446,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31843","CID":"240957964","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.7,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"BMOU9782197","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:23:57Z","AssetType":"Reefer","AssetID":"BMOU9782197","OEM":"DAIKIN","TAmb":30,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":70,"PSucQ":"asProvided","TDis":80.9,"TDisQ":null,"FreqComp":null,"TSuc":-10.1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":890,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":51,"PctExpVlvQ":null,"TEvap":22,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":60,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":388.6,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":24.7,"TRtn2Q":null,"TSet":23,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.59,"PctSucVlvQ":null,"TSup1":23.12,"TSup1Q":null,"TSup2":23.1,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-09-09T22:31:45Z","PTIResult":"Unknown","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:40.492Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ab192f4f-f7c0-4d98-ad7f-452ccf8c6411","EventDtm":"2025-11-26T06:24:09Z","AppDtm":"2025-11-26T06:24:26Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:24:09Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":12.805018,"GPSLongitude":77.662177,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.4,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:24:09Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.67,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":96.75,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.34,"AmpPhB":10.88,"AmpPhC":11.34,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.21,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.02,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.08,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.78,"TRtn1Q":null,"TRtn2":5.79,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.45,"PctSucVlvQ":null,"TSup1":5.09,"TSup1Q":null,"TSup2":5.01,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:40.503Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"d741fc33-787e-432a-9d9c-fc9ebd6d1ee0","EventDtm":"2025-11-26T06:24:48Z","AppDtm":"2025-11-26T06:25:05Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:24:48Z","DeviceID":"JSGA623040329","GPSLockState":"LOCKED","GPSSatelliteCount":8,"GPSLastLock":0,"GPSLatitude":17.547979,"GPSLongitude":78.380757,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":"-57","ExtPower":true,"ExtPowerVoltage":32.7,"BatteryVoltage":8,"DeviceTemp":27,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:40.508Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"55aea18d-368d-49db-bedf-3ee528427d83","EventDtm":"2025-11-26T06:24:46Z","AppDtm":"2025-11-26T06:25:11Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:24:46Z","DeviceID":"JSGA623040285","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":17.515942,"GPSLongitude":82.981169,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31122","CID":"239136277","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":37,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6680994","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:24:46Z","AssetType":"Reefer","AssetID":"TRIU6680994","OEM":"CARRIER","TAmb":29.72,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":3,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":135.61,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04960884","AmpPhA":11.46,"AmpPhB":11.06,"AmpPhC":11.46,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":4.03,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.11,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":408.89,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.02,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":3.74,"TRtn1Q":null,"TRtn2":3.79,"TRtn2Q":null,"TSet":3,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":5.36,"PctSucVlvQ":null,"TSup1":2.97,"TSup1Q":null,"TSup2":3.03,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-04-27T14:06:01Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:40.513Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"f9865f9d-ffa8-4490-bbed-b3f66812892c","EventDtm":"2025-11-26T08:08:00Z","AppDtm":"2025-11-26T06:26:20Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T08:08:00Z","DeviceID":"JSGA622180057","GPSLockState":"UNLOCKED","GPSSatelliteCount":255,"GPSLastLock":5217,"GPSLatitude":17.244358,"GPSLongitude":78.443679,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"32291","CID":"244550678","RSSI":"-77","ExtPower":true,"ExtPowerVoltage":33.8,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:40.665Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"833f2347-12e0-4357-abda-7190da1df074","EventDtm":"2025-11-26T06:25:40Z","AppDtm":"2025-11-26T06:26:21Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:25:40Z","DeviceID":"JSGA622180045","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":26.310603,"GPSLongitude":91.717549,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"56","LAC":"7134","CID":"250551313","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.4,"BatteryVoltage":8,"DeviceTemp":39,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7151905","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:25:40Z","AssetType":"Reefer","AssetID":"TDRU7151905","OEM":"DAIKIN","TAmb":28.5,"TAmbQ":null,"TUSDA4":-46.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-10,"PSucQ":"asProvided","TDis":75.3,"TDisQ":null,"FreqComp":null,"TSuc":-25.1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":980,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":86,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":397.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":5.3,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":93.6,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":3.8,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true},{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:40.708Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"48ae452b-109c-4d14-a4a4-91018b6ce0ca","EventDtm":"2025-11-26T06:27:21Z","AppDtm":"2025-11-26T06:27:37Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:27:21Z","DeviceID":"JSGA623040313","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":28.364698,"GPSLongitude":75.581337,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"70","LAC":"1009","CID":"247299667","RSSI":"-83","ExtPower":true,"ExtPowerVoltage":33.7,"BatteryVoltage":8,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"MORU0322200","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:27:21Z","AssetType":"Reefer","AssetID":"MORU0322200","OEM":"THERMOKING","TAmb":21,"TAmbQ":"asProvided","TUSDA4":3276.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":null,"PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":3276.6,"PSucQ":"unavailable","TDis":3276.6,"TDisQ":"OOR","FreqComp":50,"TSuc":3276.6,"TSucQ":"unavailable","MCond":null,"PCond":3276.6,"PCondQ":"unavailable","TCond":36,"TCondQ":"asProvided","MCtrl":"MaintainCool","SnCtrl":"E001083433","AmpPhA":5.7,"AmpPhB":6.4,"AmpPhC":6.5,"PDis":3276.6,"PDisQ":"unavailable","PctEconVlv":255,"PctEconVlvQ":"notUsed","PctExpVlv":255,"PctExpVlvQ":"notUsed","TEvap":16.9,"TEvapQ":"asProvided","MCtrl3":"Chilled","PctHtr":255,"PctHtrQ":"notUsed","MEvapFanHS":null,"PctGasVlv":255,"PctGasVlvQ":"notUsed","PctHum":255,"PctHumQ":"OOR","PctHumSet":255,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":388,"VLine2":null,"VLine3":null,"MEvapFanLS":null,"PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":16.2,"TRtn1Q":"asProvided","TRtn2":3276.6,"TRtn2Q":"OOR","TSet":16,"TSetQ":null,"VerSWMajor":"12060800","VerSWMinor":null,"PctSucVlv":255,"PctSucVlvQ":"notUsed","TSup1":16,"TSup1Q":"asProvided","TSup2":16,"TSup2Q":"asProvided","AmpTotalDraw":5.4,"AmpTotalDrawQ":null,"TUSDA1":3276.4,"TUSDA1Q":"OOR","TUSDA2":3276.4,"TUSDA2Q":"OOR","TUSDA3":3276.4,"TUSDA3Q":"OOR","CmhVent":1275,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"738c24f0-f918-4b28-a1b3-2df0da07b3d8","EventDtm":"2025-11-26T10:49:35Z","AppDtm":"2025-11-26T10:49:51Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T10:49:35Z","DeviceID":"JSGA623040284","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.537117,"GPSLongitude":78.175618,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"247361559","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":28.1,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618637","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T10:49:35Z","AssetType":"Reefer","AssetID":"TRIU6618637","OEM":"CARRIER","TAmb":28.73,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":148.91,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04898885","AmpPhA":9.07,"AmpPhB":10.51,"AmpPhC":9.07,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":-23.75,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":9.41,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":396.35,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":-17.84,"TRtn1Q":null,"TRtn2":-17.87,"TRtn2Q":null,"TSet":-20,"TSetQ":null,"VerSWMajor":"5168","VerSWMinor":null,"PctSucVlv":100,"PctSucVlvQ":null,"TSup1":-32.36,"TSup1Q":null,"TSup2":-31.64,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T10:27:06Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true},{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.426Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"a479a79c-a2c6-443c-a841-21e79cbfaa0d","EventDtm":"2025-11-26T10:52:30Z","AppDtm":"2025-11-26T10:52:47Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T10:52:30Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":26.606148,"GPSLongitude":80.723889,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":7.4,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.429Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"bad08118-d0c7-40a3-add1-a573d65039eb","EventDtm":"2025-11-26T10:52:30Z","AppDtm":"2025-11-26T10:52:56Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T10:52:30Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":26.606148,"GPSLongitude":80.723889,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":"-53","ExtPower":false,"ExtPowerVoltage":7.4,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.433Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"6310c177-5005-4e0e-9653-5abe82c25e9d","EventDtm":"2025-11-26T10:54:13Z","AppDtm":"2025-11-26T10:54:27Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T10:54:13Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":12.805094,"GPSLongitude":77.6622,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904096","RSSI":"-69","ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T10:54:13Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.84,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":102.95,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.54,"AmpPhB":11.21,"AmpPhC":11.54,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.18,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.79,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.03,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.75,"TRtn1Q":null,"TRtn2":5.77,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.33,"PctSucVlvQ":null,"TSup1":4.98,"TSup1Q":null,"TSup2":4.91,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.434Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ab8c7f19-af60-40c8-ba22-ff932be49e9f","EventDtm":"2025-11-26T10:55:53Z","AppDtm":"2025-11-26T10:56:13Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T10:55:53Z","DeviceID":"JSGA623040278","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.53316,"GPSLongitude":78.433369,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"230743318","RSSI":"-59","ExtPower":true,"ExtPowerVoltage":31.8,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1026520","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T10:55:53Z","AssetType":"Reefer","AssetID":"CXRU1026520","OEM":"DAIKIN","TAmb":28.5,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-20,"PSucQ":"asProvided","TDis":83,"TDisQ":null,"FreqComp":null,"TSuc":-31.7,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":850,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":15,"PctExpVlvQ":null,"TEvap":4.19,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100,"PctHumQ":null,"PctHumSet":95,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":408.3,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":6.38,"TRtn1Q":null,"TRtn2":6.5,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.06,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":4.9,"TSup2Q":null,"AmpTotalDraw":13,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-31T08:13:55Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.446Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"c7a7e65d-3b8b-407a-b67f-2000b1cef261","EventDtm":"2025-11-26T10:57:29Z","AppDtm":"2025-11-26T10:57:43Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T10:57:29Z","DeviceID":"JSGA623040182","GPSLockState":"LOCKED","GPSSatelliteCount":20,"GPSLastLock":0,"GPSLatitude":17.538995,"GPSLongitude":78.178289,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"232155661","RSSI":"-57","ExtPower":true,"ExtPowerVoltage":32.2,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU5800414","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T10:57:29Z","AssetType":"Reefer","AssetID":"TDRU5800414","OEM":"DAIKIN","TAmb":29.19,"TAmbQ":null,"TUSDA4":-46.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-40,"PSucQ":"asProvided","TDis":107.3,"TDisQ":null,"FreqComp":null,"TSuc":-33.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":920,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":18,"PctExpVlvQ":null,"TEvap":3.12,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":98.82,"PctHumQ":null,"PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":407.7,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.12,"TRtn1Q":null,"TRtn2":5.1,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":88.72,"PctSucVlvQ":null,"TSup1":4,"TSup1Q":null,"TSup2":4.1,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T07:54:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.581Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"39b58a68-ebce-4cca-b744-38e3bc9bf2b3","EventDtm":"2025-11-26T12:40:05Z","AppDtm":"2025-11-26T10:58:20Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:40:05Z","DeviceID":"JSGA622180057","GPSLockState":"UNLOCKED","GPSSatelliteCount":255,"GPSLastLock":5489,"GPSLatitude":17.244358,"GPSLongitude":78.443679,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"32291","CID":"244550678","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":34.1,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.602Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":8,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"227750a4-6be2-42b7-a9ae-bda7e8ba7c81","EventDtm":"2025-11-26T10:58:22Z","AppDtm":"2025-11-26T10:58:41Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T10:58:22Z","DeviceID":"JSGA623040321","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":12.816258,"GPSLongitude":77.687191,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"7055","CID":"103377676","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6617250","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.613Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":9,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"be159f9f-863e-4bb7-86b7-04ef51f1934a","EventDtm":"2025-11-26T11:00:49Z","AppDtm":"2025-11-26T11:01:08Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:00:49Z","DeviceID":"JSGA623040164","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":21.735674,"GPSLongitude":72.628912,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"98","LAC":"8405","CID":"246992643","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":31.3,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1031878","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:00:49Z","AssetType":"Reefer","AssetID":"CCLU1031878","OEM":"CARRIER","TAmb":32.46,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":15,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":185.4,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04502009","AmpPhA":13.59,"AmpPhB":13.38,"AmpPhC":13.59,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":16.32,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":90.19,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":434.71,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.03,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":15.61,"TRtn1Q":null,"TRtn2":15.56,"TRtn2Q":null,"TSet":15,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.16,"PctSucVlvQ":null,"TSup1":15.03,"TSup1Q":null,"TSup2":15.22,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-03-09T09:34:16Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.626Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":10,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7af73e51-4aa3-4877-bfbb-9cd24044242c","EventDtm":"2025-11-26T11:03:09Z","AppDtm":"2025-11-26T11:03:27Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:03:09Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":26.606127,"GPSLongitude":80.723663,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.7,"BatteryVoltage":8,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.634Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":11,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"765d361f-8727-4e0b-a520-63a6b717e866","EventDtm":"2025-11-26T11:03:16Z","AppDtm":"2025-11-26T11:03:35Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:03:16Z","DeviceID":"JSGA621320217","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":26.64458,"GPSLongitude":88.46806,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"51","LAC":"41512","CID":"16323942","RSSI":null,"ExtPower":true,"ExtPowerVoltage":32.5,"BatteryVoltage":8.1,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1036301","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:03:16Z","AssetType":"Reefer","AssetID":"CXRU1036301","OEM":"DAIKIN","TAmb":26.12,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-10,"PSucQ":"asProvided","TDis":90.3,"TDisQ":null,"FreqComp":null,"TSuc":-4.1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":900,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":15,"PctExpVlvQ":null,"TEvap":-0.12,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":407,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":2,"TRtn1Q":null,"TRtn2":2.7,"TRtn2Q":null,"TSet":0,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":13.11,"PctSucVlvQ":null,"TSup1":0,"TSup1Q":null,"TSup2":1.8,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-16T10:29:07Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.639Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":12,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"2edaa7fa-0750-4618-afcd-3195e58e44e3","EventDtm":"2025-11-26T11:04:13Z","AppDtm":"2025-11-26T11:04:27Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:04:13Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":12.805054,"GPSLongitude":77.662195,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.8,"BatteryVoltage":8,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:04:13Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.95,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":102.18,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.53,"AmpPhB":11.15,"AmpPhC":11.53,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.16,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":418.53,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.03,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.73,"TRtn1Q":null,"TRtn2":5.75,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.84,"PctSucVlvQ":null,"TSup1":4.96,"TSup1Q":null,"TSup2":4.9,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.640Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":13,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"0f8a2e8b-9ffd-40cd-a85e-08d427110874","EventDtm":"2025-11-26T11:05:14Z","AppDtm":"2025-11-26T11:05:31Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:05:14Z","DeviceID":"JSGA623040193","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":28.6788,"GPSLongitude":77.599802,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"97","LAC":"1827","CID":"230077975","RSSI":"-71","ExtPower":false,"ExtPowerVoltage":0,"BatteryVoltage":7.8,"DeviceTemp":25,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"SJKU4000017","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:08:18.642Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":14,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"4770b1cf-d26e-4902-a195-95bdd1c45163","EventDtm":"2025-11-26T11:05:28Z","AppDtm":"2025-11-26T11:05:44Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:05:28Z","DeviceID":"JSGA621320194","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":16.824869,"GPSLongitude":78.131523,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31204","CID":"255654657","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.8,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1186425","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:05:28Z","AssetType":"Reefer","AssetID":"CXRU1186425","OEM":"DAIKIN","TAmb":30.62,"TAmbQ":null,"TUSDA4":-46.5,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":0,"PSucQ":"asProvided","TDis":74,"TDisQ":null,"FreqComp":null,"TSuc":-23.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":1080,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":37,"PctExpVlvQ":null,"TEvap":9.69,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100,"PctHumQ":null,"PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":397.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.31,"TRtn1Q":null,"TRtn2":5.2,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.28,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5.5,"TSup2Q":null,"AmpTotalDraw":15,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.5,"TUSDA1Q":"OOR","TUSDA2":-46.5,"TUSDA2Q":"OOR","TUSDA3":-46.5,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-30T05:28:13Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:10:02.343Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":15,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"95e38655-7334-48ab-9fc7-4b45d8bf3db0","EventDtm":"2025-11-26T11:09:42Z","AppDtm":"2025-11-26T11:10:01Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:09:42Z","DeviceID":"JSGA623040290","GPSLockState":"LOCKED","GPSSatelliteCount":20,"GPSLastLock":0,"GPSLatitude":17.661603,"GPSLongitude":83.089133,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"232671233","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":29.9,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7153256","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:09:42Z","AssetType":"Reefer","AssetID":"TDRU7153256","OEM":"DAIKIN","TAmb":30.31,"TAmbQ":null,"TUSDA4":-72.8,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":50,"PSucQ":"asProvided","TDis":46.2,"TDisQ":null,"FreqComp":null,"TSuc":-13.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":1060,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":18,"PctExpVlvQ":null,"TEvap":3.38,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":367.5,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.38,"TRtn1Q":null,"TRtn2":5.3,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C1","VerSWMinor":null,"PctSucVlv":98.78,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":4,"TSup2Q":null,"AmpTotalDraw":14,"AmpTotalDrawQ":"asProvided","TUSDA1":-72.8,"TUSDA1Q":"OOR","TUSDA2":-72.8,"TUSDA2Q":"OOR","TUSDA3":-72.8,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-04-24T05:53:24Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:10:14.578Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":16,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"a1e35174-7ee7-4f96-b406-b940197c573f","EventDtm":"2025-11-26T11:09:58Z","AppDtm":"2025-11-26T11:10:14Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:09:58Z","DeviceID":"JSGA623040295","GPSLockState":"LOCKED","GPSSatelliteCount":19,"GPSLastLock":0,"GPSLatitude":17.679057,"GPSLongitude":78.720173,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19328","CID":"254963202","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CGMU2991560","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:09:58Z","AssetType":"Reefer","AssetID":"CGMU2991560","OEM":"CARRIER","TAmb":26.81,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":4,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-179.69,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":144.66,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04540798","AmpPhA":11.06,"AmpPhB":10.56,"AmpPhC":11.06,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.33,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":99.29,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":406.58,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.11,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":4.87,"TRtn1Q":null,"TRtn2":4.87,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.68,"PctSucVlvQ":null,"TSup1":3.89,"TSup1Q":null,"TSup2":3.92,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-11T07:51:42Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:21:18.469Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"755c632c-6556-44fc-9980-7ce33f466a34","EventDtm":"2025-11-26T11:14:15Z","AppDtm":"2025-11-26T11:14:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:14:15Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":12.805033,"GPSLongitude":77.662234,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.9,"BatteryVoltage":8,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:14:15Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.57,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":100.77,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.39,"AmpPhB":10.9,"AmpPhC":11.39,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.13,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":415.64,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.02,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.69,"TRtn1Q":null,"TRtn2":5.7,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.68,"PctSucVlvQ":null,"TSup1":4.98,"TSup1Q":null,"TSup2":4.9,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T11:21:18.516Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"26507aec-2409-4600-abf3-023f7c798deb","EventDtm":"2025-11-26T11:19:15Z","AppDtm":"2025-11-26T11:19:29Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:19:15Z","DeviceID":"JSGA623040304","GPSLockState":"LOCKED","GPSSatelliteCount":19,"GPSLastLock":0,"GPSLatitude":15.479434,"GPSLongitude":73.969753,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6934","CID":"242082161","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":29.5,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681434","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:19:15Z","AssetType":"Reefer","AssetID":"TRIU6681434","OEM":"CARRIER","TAmb":31.81,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":160.49,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04959272","AmpPhA":11.02,"AmpPhB":10.3,"AmpPhC":11.02,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.01,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":89.65,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":419.63,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.02,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.65,"TRtn1Q":null,"TRtn2":5.67,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.63,"PctSucVlvQ":null,"TSup1":4.98,"TSup1Q":null,"TSup2":5,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-08-19T12:53:23Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.802Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"85dd476c-49f9-4e1a-a216-e4858fb685a5","EventDtm":"2025-11-26T11:21:20Z","AppDtm":"2025-11-26T11:21:35Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:21:20Z","DeviceID":"JSGA622180052","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.547755,"GPSLongitude":78.380591,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":null,"ExtPower":true,"ExtPowerVoltage":32.8,"BatteryVoltage":8.1,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.850Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7100bdde-0a15-4f23-a50e-163608e45bd6","EventDtm":"2025-11-26T11:21:37Z","AppDtm":"2025-11-26T11:21:52Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:21:37Z","DeviceID":"JSGA623040188","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.533231,"GPSLongitude":78.433072,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"244342551","RSSI":null,"ExtPower":true,"ExtPowerVoltage":32.4,"BatteryVoltage":8.1,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"HDMU5221979","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:21:37Z","AssetType":"Reefer","AssetID":"HDMU5221979","OEM":"DAIKIN","TAmb":28.5,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":230,"PSucQ":"asProvided","TDis":76.3,"TDisQ":null,"FreqComp":null,"TSuc":20.6,"TSucQ":null,"MCond":"Off","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":940,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":5,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"ThermoOff","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"Off","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":16.93,"PctHumQ":null,"PctHumSet":65,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":414.2,"VLine2":null,"VLine3":null,"MEvapFanLS":"On","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"FanReduction","TRtn1":5.5,"TRtn1Q":null,"TRtn2":135.9,"TRtn2Q":"OOR","TSet":5,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":91.16,"PctSucVlvQ":null,"TSup1":2.5,"TSup1Q":null,"TSup2":2.7,"TSup2Q":null,"AmpTotalDraw":0,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.3,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.3,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-02-13T11:13:57Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true},{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.857Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"5a0e17b1-c40a-4778-a383-05d4354e1e18","EventDtm":"2025-11-26T11:21:57Z","AppDtm":"2025-11-26T11:22:12Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:21:57Z","DeviceID":"JSGA623040302","GPSLockState":"UNLOCKED","GPSSatelliteCount":11,"GPSLastLock":12,"GPSLatitude":19.252831,"GPSLongitude":73.01656,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578853","RSSI":"-63","ExtPower":true,"ExtPowerVoltage":28.8,"BatteryVoltage":8,"DeviceTemp":37,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681882","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.863Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9434336f-4f0f-4621-b977-05bc1fe33c33","EventDtm":"2025-11-26T11:24:14Z","AppDtm":"2025-11-26T11:24:28Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:24:14Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":12.805027,"GPSLongitude":77.66225,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:24:14Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.31,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":100.52,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.41,"AmpPhB":11.19,"AmpPhC":11.41,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.21,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.45,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.12,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.77,"TRtn1Q":null,"TRtn2":5.79,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.36,"PctSucVlvQ":null,"TSup1":5.11,"TSup1Q":null,"TSup2":5.05,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.867Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9c747cad-648c-4a60-99e1-8509a9f4eb44","EventDtm":"2025-11-26T11:24:24Z","AppDtm":"2025-11-26T11:24:39Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:24:24Z","DeviceID":"JSGA623040285","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.516015,"GPSLongitude":82.981245,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31122","CID":"239136277","RSSI":"-69","ExtPower":true,"ExtPowerVoltage":29.9,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6680994","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:24:24Z","AssetType":"Reefer","AssetID":"TRIU6680994","OEM":"CARRIER","TAmb":28.28,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":3,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":181.77,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04960884","AmpPhA":11.66,"AmpPhB":10.92,"AmpPhC":11.66,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":4.23,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.11,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":409.38,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.15,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":3.69,"TRtn1Q":null,"TRtn2":3.73,"TRtn2Q":null,"TSet":3,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.44,"PctSucVlvQ":null,"TSup1":2.86,"TSup1Q":null,"TSup2":2.91,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-04-27T14:06:01Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.870Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"0a0c8379-dc39-447a-b155-771ec9b17416","EventDtm":"2025-11-26T11:24:29Z","AppDtm":"2025-11-26T11:24:50Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:24:29Z","DeviceID":"JSGA623040331","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.516211,"GPSLongitude":82.962385,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31843","CID":"240957964","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.8,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"BMOU9782197","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:24:29Z","AssetType":"Reefer","AssetID":"BMOU9782197","OEM":"DAIKIN","TAmb":27.38,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":40,"PSucQ":"asProvided","TDis":86.3,"TDisQ":null,"FreqComp":null,"TSuc":-9.1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":800,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":44,"PctExpVlvQ":null,"TEvap":22.19,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":60,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":387.2,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":24.7,"TRtn2Q":null,"TSet":23,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.37,"PctSucVlvQ":null,"TSup1":23.12,"TSup1Q":null,"TSup2":23.1,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-09-09T22:31:45Z","PTIResult":"Unknown","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.873Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"a741d860-d5ab-4da8-8d2a-60c4369c8b62","EventDtm":"2025-11-26T11:25:42Z","AppDtm":"2025-11-26T11:25:56Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:25:42Z","DeviceID":"JSGA622180045","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":26.310651,"GPSLongitude":91.717579,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"56","LAC":"7134","CID":"250551313","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.4,"BatteryVoltage":8,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7151905","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:25:42Z","AssetType":"Reefer","AssetID":"TDRU7151905","OEM":"DAIKIN","TAmb":25.38,"TAmbQ":null,"TUSDA4":-46.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-20,"PSucQ":"asProvided","TDis":70.7,"TDisQ":null,"FreqComp":null,"TSuc":-26.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":880,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":100,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":395.1,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":5.2,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":86.89,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":3.8,"TSup2Q":null,"AmpTotalDraw":10,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true},{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.876Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":8,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"2b46259c-707e-44c7-9a36-96161f84fc00","EventDtm":"2025-11-26T11:27:34Z","AppDtm":"2025-11-26T11:27:47Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:27:34Z","DeviceID":"JSGA623040329","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":3,"GPSLatitude":17.548055,"GPSLongitude":78.380447,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":"-57","ExtPower":true,"ExtPowerVoltage":32.8,"BatteryVoltage":8,"DeviceTemp":27,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.881Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":9,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"cc066b42-1c0e-457d-ab60-1c9c085217d7","EventDtm":"2025-11-26T11:28:01Z","AppDtm":"2025-11-26T11:28:14Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:28:01Z","DeviceID":"JSGA623040313","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":28.364745,"GPSLongitude":75.581321,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"70","LAC":"1009","CID":"144900619","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":34,"BatteryVoltage":8,"DeviceTemp":27,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"MORU0322200","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:28:01Z","AssetType":"Reefer","AssetID":"MORU0322200","OEM":"THERMOKING","TAmb":21,"TAmbQ":"asProvided","TUSDA4":3276.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":null,"PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":3276.6,"PSucQ":"unavailable","TDis":3276.6,"TDisQ":"OOR","FreqComp":50,"TSuc":3276.6,"TSucQ":"unavailable","MCond":null,"PCond":3276.6,"PCondQ":"unavailable","TCond":35,"TCondQ":"asProvided","MCtrl":"MaintainCool","SnCtrl":"E001083433","AmpPhA":5.1,"AmpPhB":6.1,"AmpPhC":6,"PDis":3276.6,"PDisQ":"unavailable","PctEconVlv":255,"PctEconVlvQ":"notUsed","PctExpVlv":255,"PctExpVlvQ":"notUsed","TEvap":16.9,"TEvapQ":"asProvided","MCtrl3":"Chilled","PctHtr":255,"PctHtrQ":"notUsed","MEvapFanHS":null,"PctGasVlv":255,"PctGasVlvQ":"notUsed","PctHum":255,"PctHumQ":"OOR","PctHumSet":255,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":400,"VLine2":null,"VLine3":null,"MEvapFanLS":null,"PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":16.2,"TRtn1Q":"asProvided","TRtn2":3276.6,"TRtn2Q":"OOR","TSet":16,"TSetQ":null,"VerSWMajor":"12060800","VerSWMinor":null,"PctSucVlv":255,"PctSucVlvQ":"notUsed","TSup1":16,"TSup1Q":"asProvided","TSup2":16,"TSup2Q":"asProvided","AmpTotalDraw":7.6,"AmpTotalDrawQ":null,"TUSDA1":3276.4,"TUSDA1Q":"OOR","TUSDA2":3276.4,"TUSDA2Q":"OOR","TUSDA3":3276.4,"TUSDA3Q":"OOR","CmhVent":1275,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.885Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":10,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7beebbe1-08f5-428c-878e-d383a9773fd9","EventDtm":"2025-11-26T11:30:52Z","AppDtm":"2025-11-26T11:31:07Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:30:52Z","DeviceID":"JSGA622340187","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":16.891897,"GPSLongitude":79.475984,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-75","ExtPower":true,"ExtPowerVoltage":32.4,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1032564","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:30:52Z","AssetType":"Reefer","AssetID":"CXRU1032564","OEM":"DAIKIN","TAmb":29.31,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-30,"PSucQ":"asProvided","TDis":73.3,"TDisQ":null,"FreqComp":null,"TSuc":-30.5,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":910,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":3.31,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":410.3,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.38,"TRtn1Q":null,"TRtn2":39.2,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":9.15,"PctSucVlvQ":null,"TSup1":4,"TSup1Q":null,"TSup2":3.7,"TSup2Q":null,"AmpTotalDraw":13,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T06:44:58Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:46.889Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":11,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"bb6ee8c8-d03a-4f3e-b518-f53043823622","EventDtm":"2025-11-26T11:34:14Z","AppDtm":"2025-11-26T11:34:28Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:34:14Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":12.804974,"GPSLongitude":77.66221,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.8,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:34:14Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.76,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":104.75,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.54,"AmpPhB":11.17,"AmpPhC":11.54,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.16,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.15,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.03,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.72,"TRtn1Q":null,"TRtn2":5.74,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.24,"PctSucVlvQ":null,"TSup1":4.96,"TSup1Q":null,"TSup2":4.9,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.040Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":12,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"f5856c7a-bdb7-477e-aea5-362d84fa1523","EventDtm":"2025-11-26T11:34:38Z","AppDtm":"2025-11-26T11:34:57Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:34:38Z","DeviceID":"JSGA623040314","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":4,"GPSLatitude":19.252908,"GPSLongitude":73.016583,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578863","RSSI":"-63","ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1036859","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:34:38Z","AssetType":"Reefer","AssetID":"CCLU1036859","OEM":"CARRIER","TAmb":30.42,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":3,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-189.06,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":140.75,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04547502","AmpPhA":10.9,"AmpPhB":10.87,"AmpPhC":10.9,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.98,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":401.69,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.01,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.5,"TRtn1Q":null,"TRtn2":5.63,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5186","VerSWMinor":null,"PctSucVlv":3.85,"PctSucVlvQ":null,"TSup1":8.11,"TSup1Q":null,"TSup2":5.01,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-11T12:04:15Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.063Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":13,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"297dd0c1-4986-4fd1-9d86-499f763977e9","EventDtm":"2025-11-26T11:36:54Z","AppDtm":"2025-11-26T11:37:11Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:36:54Z","DeviceID":"JSGA623040277","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.572239,"GPSLongitude":78.515197,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19327","CID":"235323415","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":33.5,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"DFOU6120281","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.064Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":14,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"71ddba88-73f4-4bb8-8d80-aa6fbe25a019","EventDtm":"2025-11-26T11:37:21Z","AppDtm":"2025-11-26T11:37:34Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:37:21Z","DeviceID":"JSGA623040309","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":16.892114,"GPSLongitude":79.476286,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":31.9,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1045896","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:37:21Z","AssetType":"Reefer","AssetID":"CXRU1045896","OEM":"DAIKIN","TAmb":29.38,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-30,"PSucQ":"asProvided","TDis":86.5,"TDisQ":null,"FreqComp":null,"TSuc":-28,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":860,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":-2,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":407.7,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":4.62,"TRtn1Q":null,"TRtn2":5.2,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.28,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":4,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T07:47:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.065Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":15,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"83b3f1e9-235f-4ed1-82de-1acd988b9a91","EventDtm":"2025-11-26T11:38:38Z","AppDtm":"2025-11-26T11:38:55Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:38:38Z","DeviceID":"JSGA623040187","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":16.892077,"GPSLongitude":79.476199,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-61","ExtPower":true,"ExtPowerVoltage":30.4,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"GSOU6384153","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:38:38Z","AssetType":"Reefer","AssetID":"GSOU6384153","OEM":"CARRIER","TAmb":29.28,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-191.8,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":139.73,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04251422","AmpPhA":11.82,"AmpPhB":11.54,"AmpPhC":11.82,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":18.12,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":92.2,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":409.53,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":17.84,"TRtn1Q":null,"TRtn2":17.77,"TRtn2Q":null,"TSet":18.5,"TSetQ":null,"VerSWMajor":"5167","VerSWMinor":null,"PctSucVlv":2.05,"PctSucVlvQ":null,"TSup1":18.5,"TSup1Q":null,"TSup2":18.53,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-04T10:10:59Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.066Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":16,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"b155f308-9071-4b46-abd8-3957b3e94f9f","EventDtm":"2025-11-26T11:39:00Z","AppDtm":"2025-11-26T11:39:19Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:39:00Z","DeviceID":"JSGA623040320","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":17.657878,"GPSLongitude":83.101651,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"232723478","RSSI":"-75","ExtPower":true,"ExtPowerVoltage":30.1,"BatteryVoltage":7.9,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6712079","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:39:00Z","AssetType":"Reefer","AssetID":"KKFU6712079","OEM":"CARRIER","TAmb":27.83,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":0,"PctCO2SetQ":null,"PSuc":70.64,"PSucQ":null,"TDis":-189.06,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":110.22,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Idle","SnCtrl":"04742313","AmpPhA":0.93,"AmpPhB":1.57,"AmpPhC":0.93,"PDis":128.2,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":21.15,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":415.51,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":0,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":20.88,"TRtn1Q":null,"TRtn2":20.91,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5154","VerSWMinor":null,"PctSucVlv":20.1,"PctSucVlvQ":null,"TSup1":21,"TSup1Q":null,"TSup2":20.99,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-03-28T10:32:52Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.068Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":17,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"3f1cf693-4def-4371-bee0-ed517f355f02","EventDtm":"2025-11-26T11:39:29Z","AppDtm":"2025-11-26T11:39:44Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:39:29Z","DeviceID":"JSGA623040262","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":12.804917,"GPSLongitude":77.66229,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681542","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:39:29Z","AssetType":"Reefer","AssetID":"TRIU6681542","OEM":"CARRIER","TAmb":24.59,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":99.76,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04958167","AmpPhA":10.89,"AmpPhB":10.72,"AmpPhC":10.89,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.03,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.36,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.84,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.01,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.39,"TRtn1Q":null,"TRtn2":5.38,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.33,"PctSucVlvQ":null,"TSup1":5.02,"TSup1Q":null,"TSup2":5.02,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T09:58:17Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.069Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":18,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"c128d8c0-9732-4aa5-928a-b111d3a1f967","EventDtm":"2025-11-26T11:40:35Z","AppDtm":"2025-11-26T11:40:53Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:40:35Z","DeviceID":"JSGA623040298","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.657984,"GPSLongitude":83.101699,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"233290773","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":29.4,"BatteryVoltage":8.1,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6994964","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:40:35Z","AssetType":"Reefer","AssetID":"KKFU6994964","OEM":"CARRIER","TAmb":27.02,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":0.54,"PSucQ":null,"TDis":-189.45,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":154.97,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04783085","AmpPhA":13.24,"AmpPhB":13.39,"AmpPhC":13.24,"PDis":161.03,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":20.61,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0.04,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":412,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":20.04,"TRtn1Q":null,"TRtn2":20.08,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5156","VerSWMinor":null,"PctSucVlv":11.77,"PctSucVlvQ":null,"TSup1":17.07,"TSup1Q":null,"TSup2":17.17,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-11-29T10:30:33Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.070Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":19,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"fb96a17a-e425-4884-b14c-d66571e37956","EventDtm":"2025-11-26T11:44:19Z","AppDtm":"2025-11-26T11:44:32Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:44:19Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":12.804944,"GPSLongitude":77.662133,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.4,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:44:19Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.01,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":98.66,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.4,"AmpPhB":10.89,"AmpPhC":11.4,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.1,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.66,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.03,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.66,"TRtn1Q":null,"TRtn2":5.68,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.6,"PctSucVlvQ":null,"TSup1":4.96,"TSup1Q":null,"TSup2":4.88,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.073Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":20,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"fba29aec-06d2-4c3c-bf9d-1eb1eef99d2e","EventDtm":"2025-11-26T11:49:33Z","AppDtm":"2025-11-26T11:49:48Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:49:33Z","DeviceID":"JSGA623040284","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.537107,"GPSLongitude":78.175662,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"247361559","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":28.2,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618637","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:49:33Z","AssetType":"Reefer","AssetID":"TRIU6618637","OEM":"CARRIER","TAmb":27.5,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":132.86,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04898885","AmpPhA":10.35,"AmpPhB":10.83,"AmpPhC":10.35,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":-23.67,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":9.32,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":400.07,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":-17.84,"TRtn1Q":null,"TRtn2":-17.87,"TRtn2Q":null,"TSet":-20,"TSetQ":null,"VerSWMajor":"5168","VerSWMinor":null,"PctSucVlv":100,"PctSucVlvQ":null,"TSup1":-32.49,"TSup1Q":null,"TSup2":-31.71,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T10:27:06Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true},{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.074Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":21,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"92d87031-d54e-4502-a4b1-aee78b0136ab","EventDtm":"2025-11-26T11:53:00Z","AppDtm":"2025-11-26T11:53:18Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:53:00Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":26.60617,"GPSLongitude":80.72369,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.9,"BatteryVoltage":8,"DeviceTemp":23,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.075Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":22,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"d393edd0-ce60-497f-a050-04c5809c401a","EventDtm":"2025-11-26T11:54:14Z","AppDtm":"2025-11-26T11:54:28Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:54:14Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":12.804949,"GPSLongitude":77.662204,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904096","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:54:14Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":32.06,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":98.18,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.16,"AmpPhB":10.89,"AmpPhC":11.16,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.19,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":412.59,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.11,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.76,"TRtn1Q":null,"TRtn2":5.77,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.09,"PctSucVlvQ":null,"TSup1":5.11,"TSup1Q":null,"TSup2":5.04,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.078Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":23,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"69555572-b688-4b86-b232-35f89da35e72","EventDtm":"2025-11-26T11:56:11Z","AppDtm":"2025-11-26T11:56:26Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:56:11Z","DeviceID":"JSGA623040278","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":17.533126,"GPSLongitude":78.43345,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"230743318","RSSI":"-59","ExtPower":true,"ExtPowerVoltage":32.5,"BatteryVoltage":8,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1026520","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:56:11Z","AssetType":"Reefer","AssetID":"CXRU1026520","OEM":"DAIKIN","TAmb":27,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-20,"PSucQ":"asProvided","TDis":69.3,"TDisQ":null,"FreqComp":null,"TSuc":-24.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":810,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":3.5,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100,"PctHumQ":null,"PctHumSet":95,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":413.6,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":6.31,"TRtn1Q":null,"TRtn2":6.4,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.06,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5,"TSup2Q":null,"AmpTotalDraw":13,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-31T08:13:55Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.079Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":24,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7960fc63-2fd3-4243-ab74-901ef15a9b6f","EventDtm":"2025-11-26T11:57:35Z","AppDtm":"2025-11-26T11:57:48Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:57:35Z","DeviceID":"JSGA623040182","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.53902,"GPSLongitude":78.178287,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"232155661","RSSI":"-57","ExtPower":true,"ExtPowerVoltage":32.1,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU5800414","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T11:57:35Z","AssetType":"Reefer","AssetID":"TDRU5800414","OEM":"DAIKIN","TAmb":27.62,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":70,"PSucQ":"asProvided","TDis":77.9,"TDisQ":null,"FreqComp":null,"TSuc":-12.3,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":970,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":24,"PctExpVlvQ":null,"TEvap":3.5,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":413.6,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5,"TRtn1Q":null,"TRtn2":5,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":93.29,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":4.1,"TSup2Q":null,"AmpTotalDraw":13,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.4,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T07:54:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.081Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":25,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"39b2a72b-a195-4acc-b796-410f15b3b457","EventDtm":"2025-11-26T13:39:59Z","AppDtm":"2025-11-26T11:58:13Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T13:39:59Z","DeviceID":"JSGA622180057","GPSLockState":"UNLOCKED","GPSSatelliteCount":255,"GPSLastLock":5549,"GPSLatitude":17.244358,"GPSLongitude":78.443679,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"32291","CID":"244550678","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":34.2,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.082Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":26,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"c421bdca-3cc8-41a2-93f2-dd166ac351c7","EventDtm":"2025-11-26T11:58:29Z","AppDtm":"2025-11-26T11:58:43Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T11:58:29Z","DeviceID":"JSGA623040321","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":12.816201,"GPSLongitude":77.687129,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"7055","CID":"103377676","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.7,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6617250","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.241Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":27,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"d129c480-4c82-4031-8867-026c2894a81e","EventDtm":"2025-11-26T12:00:47Z","AppDtm":"2025-11-26T12:01:06Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:00:47Z","DeviceID":"JSGA623040164","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":21.735453,"GPSLongitude":72.628884,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"98","LAC":"8405","CID":"246992643","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":30.7,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1031878","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:00:47Z","AssetType":"Reefer","AssetID":"CCLU1031878","OEM":"CARRIER","TAmb":32.34,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":15,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":192.73,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04502009","AmpPhA":13.87,"AmpPhB":13.65,"AmpPhC":13.87,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":16.26,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":90.19,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":433.73,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.09,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":15.55,"TRtn1Q":null,"TRtn2":15.5,"TRtn2Q":null,"TSet":15,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":2.89,"PctSucVlvQ":null,"TSup1":14.86,"TSup1Q":null,"TSup2":15.05,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-03-09T09:34:16Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.281Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":28,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"3f84197b-3251-43bf-b585-79cf665772a2","EventDtm":"2025-11-26T12:03:19Z","AppDtm":"2025-11-26T12:03:37Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:03:19Z","DeviceID":"JSGA621320217","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":26.644524,"GPSLongitude":88.468048,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"51","LAC":"41512","CID":"16323942","RSSI":null,"ExtPower":true,"ExtPowerVoltage":32.6,"BatteryVoltage":8.1,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1036301","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:03:19Z","AssetType":"Reefer","AssetID":"CXRU1036301","OEM":"DAIKIN","TAmb":24,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-20,"PSucQ":"asProvided","TDis":93,"TDisQ":null,"FreqComp":null,"TSuc":-5.4,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":830,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":12,"PctExpVlvQ":null,"TEvap":-1.31,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":405,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":1.62,"TRtn1Q":null,"TRtn2":2.3,"TRtn2Q":null,"TSet":0,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.59,"PctSucVlvQ":null,"TSup1":0,"TSup1Q":null,"TSup2":1.7,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-16T10:29:07Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.282Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":29,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"979ff63c-8a53-4eb8-b9c6-6ad44b65188d","EventDtm":"2025-11-26T12:04:16Z","AppDtm":"2025-11-26T12:04:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:04:16Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":12.805,"GPSLongitude":77.662197,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:04:16Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.99,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":102.32,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.52,"AmpPhB":11.14,"AmpPhC":11.52,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.15,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":416.74,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.72,"TRtn1Q":null,"TRtn2":5.73,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.24,"PctSucVlvQ":null,"TSup1":5,"TSup1Q":null,"TSup2":4.93,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.283Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":30,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"774556d5-f2b6-4e5d-8064-12110ef0ef31","EventDtm":"2025-11-26T12:05:34Z","AppDtm":"2025-11-26T12:05:50Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:05:34Z","DeviceID":"JSGA621320194","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":16.824912,"GPSLongitude":78.131565,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31204","CID":"255654657","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.8,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1186425","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:05:34Z","AssetType":"Reefer","AssetID":"CXRU1186425","OEM":"DAIKIN","TAmb":28.62,"TAmbQ":null,"TUSDA4":-46.5,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-10,"PSucQ":"asProvided","TDis":70.7,"TDisQ":null,"FreqComp":null,"TSuc":-24.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":1000,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":37,"PctExpVlvQ":null,"TEvap":9.38,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":400.4,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.19,"TRtn1Q":null,"TRtn2":5,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.67,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5.5,"TSup2Q":null,"AmpTotalDraw":15,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.5,"TUSDA1Q":"OOR","TUSDA2":-46.5,"TUSDA2Q":"OOR","TUSDA3":-46.5,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-30T05:28:13Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":31,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"4a3c14ce-c175-48e3-b6de-6dd2a2631d7b","EventDtm":"2025-11-26T12:08:48Z","AppDtm":"2025-11-26T12:09:03Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:08:48Z","DeviceID":"JSGA623040284","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":17.537117,"GPSLongitude":78.175688,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"247361559","RSSI":"-73","ExtPower":false,"ExtPowerVoltage":5,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618637","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.284Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":32,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"bcbc6930-1427-4941-80e3-b28d93ad708e","EventDtm":"2025-11-26T12:09:44Z","AppDtm":"2025-11-26T12:10:02Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:09:44Z","DeviceID":"JSGA623040290","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":17.661632,"GPSLongitude":83.089151,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"232671233","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":30.3,"BatteryVoltage":8,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7153256","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:09:44Z","AssetType":"Reefer","AssetID":"TDRU7153256","OEM":"DAIKIN","TAmb":29.62,"TAmbQ":null,"TUSDA4":-72.8,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":50,"PSucQ":"asProvided","TDis":45.4,"TDisQ":null,"FreqComp":null,"TSuc":-13.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":1040,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":18,"PctExpVlvQ":null,"TEvap":3.31,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":370.1,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.31,"TRtn1Q":null,"TRtn2":5.2,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C1","VerSWMinor":null,"PctSucVlv":97.56,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":4,"TSup2Q":null,"AmpTotalDraw":14,"AmpTotalDrawQ":"asProvided","TUSDA1":-72.7,"TUSDA1Q":"OOR","TUSDA2":-72.8,"TUSDA2Q":"OOR","TUSDA3":-72.8,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-04-24T05:53:24Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.286Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":33,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"71c770ca-25c4-4f7e-998b-3a66c9813e6e","EventDtm":"2025-11-26T12:10:07Z","AppDtm":"2025-11-26T12:10:22Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:10:07Z","DeviceID":"JSGA623040295","GPSLockState":"LOCKED","GPSSatelliteCount":19,"GPSLastLock":0,"GPSLatitude":17.679085,"GPSLongitude":78.720147,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19328","CID":"254963202","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CGMU2991560","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:10:07Z","AssetType":"Reefer","AssetID":"CGMU2991560","OEM":"CARRIER","TAmb":25.46,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":4,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-182.03,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":138.73,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04540798","AmpPhA":10.94,"AmpPhB":10.51,"AmpPhC":10.94,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.26,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":99.81,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":405.28,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.09,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":4.8,"TRtn1Q":null,"TRtn2":4.79,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.65,"PctSucVlvQ":null,"TSup1":3.92,"TSup1Q":null,"TSup2":3.95,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-11T07:51:42Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.287Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":34,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"987b2b76-df95-4577-bb0e-47b9f65e5c31","EventDtm":"2025-11-26T12:11:56Z","AppDtm":"2025-11-26T12:12:10Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:11:56Z","DeviceID":"JSGA623040284","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.537157,"GPSLongitude":78.175649,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"247361559","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":28.7,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618637","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:11:56Z","AssetType":"Reefer","AssetID":"TRIU6618637","OEM":"CARRIER","TAmb":26.81,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":126.86,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04898885","AmpPhA":1.45,"AmpPhB":2.59,"AmpPhC":1.45,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":-24.06,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":20.71,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":404.05,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":-13.58,"TRtn1Q":null,"TRtn2":-13.6,"TRtn2Q":null,"TSet":-20,"TSetQ":null,"VerSWMajor":"5168","VerSWMinor":null,"PctSucVlv":21.04,"PctSucVlvQ":null,"TSup1":-29.98,"TSup1Q":null,"TSup2":-30.77,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T10:27:06Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true},{"OemAlarm":53,"RCAlias":"AL53","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.288Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":35,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"c1edfe99-f037-434a-b3db-0bed3e32df59","EventDtm":"2025-11-26T12:14:15Z","AppDtm":"2025-11-26T12:14:28Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:14:15Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":12.804988,"GPSLongitude":77.662234,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:14:15Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.63,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":98.01,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.47,"AmpPhB":10.97,"AmpPhC":11.47,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.11,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.6,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.05,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.7,"TRtn1Q":null,"TRtn2":5.71,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.61,"PctSucVlvQ":null,"TSup1":4.94,"TSup1Q":null,"TSup2":4.86,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.293Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":36,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"83ef3025-805d-4d20-8f3d-8349a97dd928","EventDtm":"2025-11-26T12:19:17Z","AppDtm":"2025-11-26T12:19:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:19:17Z","DeviceID":"JSGA623040304","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":15.479477,"GPSLongitude":73.969654,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6934","CID":"242082151","RSSI":"-69","ExtPower":true,"ExtPowerVoltage":29.2,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681434","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:19:17Z","AssetType":"Reefer","AssetID":"TRIU6681434","OEM":"CARRIER","TAmb":28.9,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":148.56,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04959272","AmpPhA":10.59,"AmpPhB":9.99,"AmpPhC":10.59,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":89.44,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.85,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.01,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.63,"TRtn1Q":null,"TRtn2":5.65,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":5.46,"PctSucVlvQ":null,"TSup1":5.01,"TSup1Q":null,"TSup2":5.03,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-08-19T12:53:23Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.294Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":37,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"5e203be9-e46a-454a-8c6e-310c02da6ad4","EventDtm":"2025-11-26T12:16:21Z","AppDtm":"2025-11-26T12:20:47Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:16:21Z","DeviceID":"JSGA623040193","GPSLockState":"LOCKED","GPSSatelliteCount":255,"GPSLastLock":73,"GPSLatitude":28.6788,"GPSLongitude":77.599802,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"97","LAC":"1827","CID":"230077975","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":27.6,"BatteryVoltage":7.9,"DeviceTemp":21,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"SJKU4000017","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:16:21Z","AssetType":"Reefer","AssetID":"SJKU4000017","OEM":"CARRIER","TAmb":21.26,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":64.78,"PSucQ":null,"TDis":26.81,"TDisQ":null,"FreqComp":null,"TSuc":21.73,"TSucQ":null,"MCond":0,"PCond":284.94,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Configuration","SnCtrl":"04475864","AmpPhA":1.49,"AmpPhB":1.46,"AmpPhC":1.49,"PDis":88.86,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":21.91,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":61.28,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":412.65,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":22.02,"TRtn1Q":null,"TRtn2":21.99,"TRtn2Q":null,"TSet":17.2,"TSetQ":null,"VerSWMajor":"5370","VerSWMinor":null,"PctSucVlv":10,"PctSucVlvQ":null,"TSup1":20.66,"TSup1Q":null,"TSup2":20.55,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-03-23T08:47:13Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":38,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"c804b3e0-ec59-4cf4-8d34-17662c941725","EventDtm":"2025-11-26T12:21:29Z","AppDtm":"2025-11-26T12:21:43Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:21:29Z","DeviceID":"JSGA622180052","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.547767,"GPSLongitude":78.380495,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.4,"BatteryVoltage":8.1,"DeviceTemp":27,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.295Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":39,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"31ac8614-c241-46ff-ac52-039b91b33ff8","EventDtm":"2025-11-26T12:21:41Z","AppDtm":"2025-11-26T12:21:55Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:21:41Z","DeviceID":"JSGA623040188","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.533252,"GPSLongitude":78.433112,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"244342551","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":32.8,"BatteryVoltage":8.1,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"HDMU5221979","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:21:41Z","AssetType":"Reefer","AssetID":"HDMU5221979","OEM":"DAIKIN","TAmb":27.62,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":240,"PSucQ":"asProvided","TDis":66.2,"TDisQ":null,"FreqComp":null,"TSuc":18.6,"TSucQ":null,"MCond":"Off","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":890,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":5,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"ThermoOff","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":16.93,"PctHumQ":null,"PctHumSet":65,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":418.9,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"FanReduction","TRtn1":5.5,"TRtn1Q":null,"TRtn2":136.1,"TRtn2Q":"OOR","TSet":5,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":88.11,"PctSucVlvQ":null,"TSup1":4.38,"TSup1Q":null,"TSup2":4.5,"TSup2Q":null,"AmpTotalDraw":2,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.3,"TUSDA1Q":"OOR","TUSDA2":-46.2,"TUSDA2Q":"OOR","TUSDA3":-46.3,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-02-13T11:13:57Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true},{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.296Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":40,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"287489b2-1a10-4a61-b142-f4e73fded279","EventDtm":"2025-11-26T12:22:20Z","AppDtm":"2025-11-26T12:22:35Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:22:20Z","DeviceID":"JSGA623040302","GPSLockState":"LOCKED","GPSSatelliteCount":9,"GPSLastLock":1,"GPSLatitude":19.252891,"GPSLongitude":73.016572,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578853","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":29.4,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681882","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":41,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"d736b7a8-3714-4646-8520-63c792b8de26","EventDtm":"2025-11-26T12:24:15Z","AppDtm":"2025-11-26T12:24:29Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:24:15Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":12.804986,"GPSLongitude":77.662217,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:24:15Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.48,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":96.69,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.27,"AmpPhB":10.97,"AmpPhC":11.27,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.11,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":413.95,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.01,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.68,"TRtn1Q":null,"TRtn2":5.7,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.57,"PctSucVlvQ":null,"TSup1":4.99,"TSup1Q":null,"TSup2":4.91,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.297Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":42,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9f645578-8baa-4b9f-a4cc-517f90910327","EventDtm":"2025-11-26T12:24:21Z","AppDtm":"2025-11-26T12:24:41Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:24:21Z","DeviceID":"JSGA623040285","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":17.51608,"GPSLongitude":82.981231,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31122","CID":"239136277","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":30.1,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6680994","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:24:21Z","AssetType":"Reefer","AssetID":"TRIU6680994","OEM":"CARRIER","TAmb":26.96,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":3,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":119.74,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04960884","AmpPhA":11.55,"AmpPhB":11.02,"AmpPhC":11.55,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":4.19,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.12,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":412.44,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.03,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":3.65,"TRtn1Q":null,"TRtn2":3.7,"TRtn2Q":null,"TSet":3,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.46,"PctSucVlvQ":null,"TSup1":3.03,"TSup1Q":null,"TSup2":3.08,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-04-27T14:06:01Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.300Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":43,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"f4b69f9e-4e31-42a9-a67e-878376620cd5","EventDtm":"2025-11-26T12:24:41Z","AppDtm":"2025-11-26T12:24:57Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:24:41Z","DeviceID":"JSGA623040331","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.516211,"GPSLongitude":82.962392,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31843","CID":"240957963","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.6,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"BMOU9782197","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:24:41Z","AssetType":"Reefer","AssetID":"BMOU9782197","OEM":"DAIKIN","TAmb":26.5,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":40,"PSucQ":"asProvided","TDis":85.8,"TDisQ":null,"FreqComp":null,"TSuc":-10.7,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":810,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":44,"PctExpVlvQ":null,"TEvap":22.12,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":60,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":383.3,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":24.6,"TRtn2Q":null,"TSet":23,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.67,"PctSucVlvQ":null,"TSup1":23.12,"TSup1Q":null,"TSup2":23.1,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-09-09T22:31:45Z","PTIResult":"Unknown","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.445Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":44,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"de3187fd-5878-4b03-a07c-1ed96278cc5b","EventDtm":"2025-11-26T12:25:45Z","AppDtm":"2025-11-26T12:25:58Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:25:45Z","DeviceID":"JSGA622180045","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":26.310519,"GPSLongitude":91.717673,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"56","LAC":"7134","CID":"250551313","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.8,"BatteryVoltage":8,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7151905","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:25:45Z","AssetType":"Reefer","AssetID":"TDRU7151905","OEM":"DAIKIN","TAmb":23.5,"TAmbQ":null,"TUSDA4":-46.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-20,"PSucQ":"asProvided","TDis":67.4,"TDisQ":null,"FreqComp":null,"TSuc":-28.3,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":850,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":100,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":401.7,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":5.1,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":85.37,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":3.8,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.4,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true},{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.467Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":45,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"4b9e54ad-a2b0-4974-95f1-1233ce48f9d8","EventDtm":"2025-11-26T12:28:06Z","AppDtm":"2025-11-26T12:28:19Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:28:06Z","DeviceID":"JSGA623040329","GPSLockState":"LOCKED","GPSSatelliteCount":9,"GPSLastLock":4,"GPSLatitude":17.548044,"GPSLongitude":78.380595,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":"-57","ExtPower":true,"ExtPowerVoltage":33.1,"BatteryVoltage":8,"DeviceTemp":27,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.468Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":46,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"5b3d3ac9-0194-4e92-a86e-44009df8085b","EventDtm":"2025-11-26T12:28:03Z","AppDtm":"2025-11-26T12:28:22Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:28:03Z","DeviceID":"JSGA623040313","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":28.364666,"GPSLongitude":75.581324,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"70","LAC":"1009","CID":"255024908","RSSI":"-77","ExtPower":true,"ExtPowerVoltage":33.4,"BatteryVoltage":8,"DeviceTemp":25,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"MORU0322200","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:28:03Z","AssetType":"Reefer","AssetID":"MORU0322200","OEM":"THERMOKING","TAmb":18,"TAmbQ":"asProvided","TUSDA4":3276.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":null,"PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":3276.6,"PSucQ":"unavailable","TDis":3276.6,"TDisQ":"OOR","FreqComp":50,"TSuc":3276.6,"TSucQ":"unavailable","MCond":null,"PCond":3276.6,"PCondQ":"unavailable","TCond":35,"TCondQ":"asProvided","MCtrl":"MaintainCool","SnCtrl":"E001083433","AmpPhA":6.7,"AmpPhB":7.6,"AmpPhC":7.8,"PDis":3276.6,"PDisQ":"unavailable","PctEconVlv":255,"PctEconVlvQ":"notUsed","PctExpVlv":255,"PctExpVlvQ":"notUsed","TEvap":17,"TEvapQ":"asProvided","MCtrl3":"Chilled","PctHtr":255,"PctHtrQ":"notUsed","MEvapFanHS":null,"PctGasVlv":255,"PctGasVlvQ":"notUsed","PctHum":255,"PctHumQ":"OOR","PctHumSet":255,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":392,"VLine2":null,"VLine3":null,"MEvapFanLS":null,"PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":16.2,"TRtn1Q":"asProvided","TRtn2":3276.6,"TRtn2Q":"OOR","TSet":16,"TSetQ":null,"VerSWMajor":"12060800","VerSWMinor":null,"PctSucVlv":255,"PctSucVlvQ":"notUsed","TSup1":16,"TSup1Q":"asProvided","TSup2":16,"TSup2Q":"asProvided","AmpTotalDraw":5.4,"AmpTotalDrawQ":null,"TUSDA1":3276.4,"TUSDA1Q":"OOR","TUSDA2":3276.4,"TUSDA2Q":"OOR","TUSDA3":3276.4,"TUSDA3Q":"OOR","CmhVent":1275,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":47,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"acbee516-82f0-4017-ac3d-aefe96d45024","EventDtm":"2025-11-26T12:27:32Z","AppDtm":"2025-11-26T12:30:43Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:27:32Z","DeviceID":"JSGA622180044","GPSLockState":"LOCKED","GPSSatelliteCount":255,"GPSLastLock":9607,"GPSLatitude":26.76447,"GPSLongitude":80.882774,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"54","LAC":"30917","CID":"234230020","RSSI":null,"ExtPower":true,"ExtPowerVoltage":7.5,"BatteryVoltage":7.9,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618581","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.469Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":48,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e0024207-af95-4989-960f-84b0811d4aea","EventDtm":"2025-11-26T12:27:32Z","AppDtm":"2025-11-26T12:30:57Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:27:32Z","DeviceID":"JSGA622180044","GPSLockState":"LOCKED","GPSSatelliteCount":255,"GPSLastLock":9607,"GPSLatitude":26.76447,"GPSLongitude":80.882774,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"54","LAC":"30917","CID":"234230020","RSSI":null,"ExtPower":false,"ExtPowerVoltage":7.5,"BatteryVoltage":7.9,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618581","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.470Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":49,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"06c4d164-7917-41fc-85d0-610d6fed2d05","EventDtm":"2025-11-26T12:30:58Z","AppDtm":"2025-11-26T12:31:12Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:30:58Z","DeviceID":"JSGA622340187","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":16.891836,"GPSLongitude":79.475987,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-75","ExtPower":true,"ExtPowerVoltage":32.2,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1032564","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:30:58Z","AssetType":"Reefer","AssetID":"CXRU1032564","OEM":"DAIKIN","TAmb":27.81,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-30,"PSucQ":"asProvided","TDis":72,"TDisQ":null,"FreqComp":null,"TSuc":-29.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":890,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":3.38,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":405.7,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.31,"TRtn1Q":null,"TRtn2":39.2,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":9.15,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":3.8,"TSup2Q":null,"AmpTotalDraw":13,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T06:44:58Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":50,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"896a5374-bb92-433c-a3be-e6b4ffac4252","EventDtm":"2025-11-26T12:32:17Z","AppDtm":"2025-11-26T12:32:34Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:32:17Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":0,"GPSLatitude":26.60617,"GPSLongitude":80.723623,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":false,"ExtPowerVoltage":6.5,"BatteryVoltage":8,"DeviceTemp":21,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.471Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":51,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"4ad9d2ca-9bb3-4673-88fe-c1b422e63d77","EventDtm":"2025-11-26T12:34:15Z","AppDtm":"2025-11-26T12:34:29Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:34:15Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":12.804902,"GPSLongitude":77.662306,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:34:15Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":30.91,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":94.1,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.41,"AmpPhB":11.04,"AmpPhC":11.41,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.18,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":416.88,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.11,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.75,"TRtn1Q":null,"TRtn2":5.76,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":5.06,"PctSucVlvQ":null,"TSup1":5.1,"TSup1Q":null,"TSup2":5.02,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":52,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"d8c4dbd2-e8f1-4a6c-8b04-87b45750e5df","EventDtm":"2025-11-26T12:34:49Z","AppDtm":"2025-11-26T12:35:09Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:34:49Z","DeviceID":"JSGA623040314","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":4,"GPSLatitude":19.252918,"GPSLongitude":73.016549,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578863","RSSI":"-65","ExtPower":true,"ExtPowerVoltage":29.6,"BatteryVoltage":8,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1036859","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:34:49Z","AssetType":"Reefer","AssetID":"CCLU1036859","OEM":"CARRIER","TAmb":29.5,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":3,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-189.06,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":133.47,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04547502","AmpPhA":10.86,"AmpPhB":11.18,"AmpPhC":10.86,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.99,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":403.32,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.05,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.48,"TRtn1Q":null,"TRtn2":5.61,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5186","VerSWMinor":null,"PctSucVlv":3.75,"PctSucVlvQ":null,"TSup1":8.14,"TSup1Q":null,"TSup2":5.05,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-11T12:04:15Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.495Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":53,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"b7c6bdae-056d-4f9a-905d-287261f0dab4","EventDtm":"2025-11-26T12:37:24Z","AppDtm":"2025-11-26T12:37:37Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:37:24Z","DeviceID":"JSGA623040309","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":16.892053,"GPSLongitude":79.476261,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":31.5,"BatteryVoltage":8,"DeviceTemp":32,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1045896","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:37:24Z","AssetType":"Reefer","AssetID":"CXRU1045896","OEM":"DAIKIN","TAmb":27.69,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-40,"PSucQ":"asProvided","TDis":87,"TDisQ":null,"FreqComp":null,"TSuc":-28.3,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":790,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":-1.81,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":403.7,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":4.5,"TRtn1Q":null,"TRtn2":5.1,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.98,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":4,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-04T07:47:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":54,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7764d72c-980a-4269-a299-d5a80ef5ec99","EventDtm":"2025-11-26T12:37:07Z","AppDtm":"2025-11-26T12:37:27Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:37:07Z","DeviceID":"JSGA623040277","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.572153,"GPSLongitude":78.515143,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19327","CID":"235323415","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":34.1,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"DFOU6120281","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.496Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":55,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"74412b51-3856-4de0-ad18-85fbe07a9e05","EventDtm":"2025-11-26T12:38:50Z","AppDtm":"2025-11-26T12:39:06Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:38:50Z","DeviceID":"JSGA623040187","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":16.89206,"GPSLongitude":79.476157,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31802","CID":"247193878","RSSI":"-59","ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":33,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"GSOU6384153","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:38:50Z","AssetType":"Reefer","AssetID":"GSOU6384153","OEM":"CARRIER","TAmb":27.81,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-191.8,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":155.45,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04251422","AmpPhA":11.54,"AmpPhB":11.37,"AmpPhC":11.54,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":18.29,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":92.2,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":405.18,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":18.03,"TRtn1Q":null,"TRtn2":17.98,"TRtn2Q":null,"TSet":18.5,"TSetQ":null,"VerSWMajor":"5167","VerSWMinor":null,"PctSucVlv":1.96,"PctSucVlvQ":null,"TSup1":18.5,"TSup1Q":null,"TSup2":18.53,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-04T10:10:59Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.497Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":56,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"b0164976-9e70-4289-b1c6-64e3fd08ab43","EventDtm":"2025-11-26T12:39:11Z","AppDtm":"2025-11-26T12:39:28Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:39:11Z","DeviceID":"JSGA623040320","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":17.657856,"GPSLongitude":83.101804,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"232723478","RSSI":"-75","ExtPower":true,"ExtPowerVoltage":29.8,"BatteryVoltage":7.9,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6712079","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:39:11Z","AssetType":"Reefer","AssetID":"KKFU6712079","OEM":"CARRIER","TAmb":27.67,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":0,"PctCO2SetQ":null,"PSuc":65.1,"PSucQ":null,"TDis":-188.28,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":123.7,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Idle","SnCtrl":"04742313","AmpPhA":0.92,"AmpPhB":1.55,"AmpPhC":0.92,"PDis":137.84,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":20.27,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":413.4,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":0,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":20.02,"TRtn1Q":null,"TRtn2":20.03,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5154","VerSWMinor":null,"PctSucVlv":20.27,"PctSucVlvQ":null,"TSup1":18.67,"TSup1Q":null,"TSup2":18.77,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-03-28T10:32:52Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":57,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"23090b87-2c35-47e1-b563-5c0995c915ba","EventDtm":"2025-11-26T12:39:39Z","AppDtm":"2025-11-26T12:39:53Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:39:39Z","DeviceID":"JSGA623040262","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":12.805051,"GPSLongitude":77.662271,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681542","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:39:39Z","AssetType":"Reefer","AssetID":"TRIU6681542","OEM":"CARRIER","TAmb":25.56,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":132.41,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04958167","AmpPhA":9.99,"AmpPhB":10.55,"AmpPhC":9.99,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.97,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.36,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":412.65,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.1,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.31,"TRtn1Q":null,"TRtn2":5.32,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":3.89,"PctSucVlvQ":null,"TSup1":4.94,"TSup1Q":null,"TSup2":4.95,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T09:58:17Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.498Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":58,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"4a0755ef-e0ba-4976-ad61-0ab1d1199b9a","EventDtm":"2025-11-26T12:40:25Z","AppDtm":"2025-11-26T12:41:19Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:40:25Z","DeviceID":"JSGA623040298","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":17.657922,"GPSLongitude":83.101808,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31121","CID":"233290773","RSSI":"-71","ExtPower":true,"ExtPowerVoltage":30.5,"BatteryVoltage":8.1,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"KKFU6994964","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:40:25Z","AssetType":"Reefer","AssetID":"KKFU6994964","OEM":"CARRIER","TAmb":27.4,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":67.62,"PSucQ":null,"TDis":-190.62,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":0,"PCond":116.16,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Idle","SnCtrl":"04783085","AmpPhA":0.93,"AmpPhB":1.57,"AmpPhC":0.93,"PDis":117.09,"PDisQ":null,"PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":20.42,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":0,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0.02,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":423.55,"VLine2":null,"VLine3":null,"MEvapFanLS":1,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":20.12,"TRtn1Q":null,"TRtn2":20.18,"TRtn2Q":null,"TSet":20,"TSetQ":null,"VerSWMajor":"5156","VerSWMinor":null,"PctSucVlv":20.5,"PctSucVlvQ":null,"TSup1":18.57,"TSup1Q":null,"TSup2":18.68,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-11-29T10:30:33Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.499Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":59,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"1c26d0c7-ade2-4cac-82f7-4d26a2bf426c","EventDtm":"2025-11-26T12:44:17Z","AppDtm":"2025-11-26T12:44:31Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:44:17Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":12.804915,"GPSLongitude":77.662309,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.4,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:44:17Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.15,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":95.76,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.3,"AmpPhB":10.85,"AmpPhC":11.3,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.13,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":414.36,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.05,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.71,"TRtn1Q":null,"TRtn2":5.71,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.88,"PctSucVlvQ":null,"TSup1":4.94,"TSup1Q":null,"TSup2":4.87,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":60,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"4a7d5416-6b58-4a82-bca9-f704d941e975","EventDtm":"2025-11-26T12:53:22Z","AppDtm":"2025-11-26T12:53:38Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:53:22Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":26.606176,"GPSLongitude":80.723587,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.9,"BatteryVoltage":8,"DeviceTemp":20,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.500Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":61,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"fa5884a4-9cb3-4aa5-ac6b-9f362f0f617b","EventDtm":"2025-11-26T12:54:16Z","AppDtm":"2025-11-26T12:54:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:54:16Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":16,"GPSLastLock":0,"GPSLatitude":12.804924,"GPSLongitude":77.662289,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.1,"BatteryVoltage":8,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:54:16Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":30.73,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":92.81,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.73,"AmpPhB":11.21,"AmpPhC":11.73,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.11,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":419.31,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.02,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.67,"TRtn1Q":null,"TRtn2":5.69,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.39,"PctSucVlvQ":null,"TSup1":4.98,"TSup1Q":null,"TSup2":4.9,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.647Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":62,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"513288cb-cbc9-42a9-93f2-db3f47974c87","EventDtm":"2025-11-26T12:56:19Z","AppDtm":"2025-11-26T12:56:37Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:56:19Z","DeviceID":"JSGA623040278","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":17.533182,"GPSLongitude":78.43358,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"230743318","RSSI":"-59","ExtPower":true,"ExtPowerVoltage":32.9,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1026520","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:56:19Z","AssetType":"Reefer","AssetID":"CXRU1026520","OEM":"DAIKIN","TAmb":26,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-30,"PSucQ":"asProvided","TDis":74.4,"TDisQ":null,"FreqComp":null,"TSuc":-30.8,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":800,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":3.62,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100,"PctHumQ":null,"PctHumSet":95,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":416.9,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":6.19,"TRtn1Q":null,"TRtn2":6.3,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":9.45,"PctSucVlvQ":null,"TSup1":5.19,"TSup1Q":null,"TSup2":5.1,"TSup2Q":null,"AmpTotalDraw":14,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-10-31T08:13:55Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.674Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":63,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ca06a650-024d-4041-9d5f-bc1fef4a8387","EventDtm":"2025-11-26T12:57:36Z","AppDtm":"2025-11-26T12:58:19Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:57:36Z","DeviceID":"JSGA623040182","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":17.539061,"GPSLongitude":78.178301,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19397","CID":"232155661","RSSI":"-55","ExtPower":true,"ExtPowerVoltage":32.4,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU5800414","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:57:36Z","AssetType":"Reefer","AssetID":"TDRU5800414","OEM":"DAIKIN","TAmb":26,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":50,"PSucQ":"asProvided","TDis":78.2,"TDisQ":null,"FreqComp":null,"TSuc":-16.2,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":890,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":18,"PctExpVlvQ":null,"TEvap":3.19,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":98.82,"PctHumQ":null,"PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":412.9,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":4.88,"TRtn1Q":null,"TRtn2":4.9,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":87.8,"PctSucVlvQ":null,"TSup1":4,"TSup1Q":null,"TSup2":4.1,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-09-30T07:54:44Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.675Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":64,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7d22a655-f82d-4e67-b936-b938297b70f0","EventDtm":"2025-11-26T14:39:53Z","AppDtm":"2025-11-26T12:58:21Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T14:39:53Z","DeviceID":"JSGA622180057","GPSLockState":"UNLOCKED","GPSSatelliteCount":255,"GPSLastLock":5608,"GPSLatitude":17.244358,"GPSLongitude":78.443679,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"32291","CID":"244550678","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":33.8,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.676Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":65,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"29db0e13-72ff-40fe-b025-3b07d28d34bf","EventDtm":"2025-11-26T12:58:56Z","AppDtm":"2025-11-26T12:59:42Z","Events":["ControllerOnline"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:58:56Z","DeviceID":"JSGA622180044","GPSLockState":"LOCKED","GPSSatelliteCount":9,"GPSLastLock":0,"GPSLatitude":26.764448,"GPSLongitude":80.882937,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"54","LAC":"30917","CID":"234230140","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":31.3,"BatteryVoltage":7.9,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618581","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:58:56Z","AssetType":"Reefer","AssetID":"TRIU6618581","OEM":"CARRIER","TAmb":21.62,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":65.55,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04900648","AmpPhA":2.21,"AmpPhB":2.33,"AmpPhC":2.21,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":20.27,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":91.14,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":405.08,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":20.88,"TRtn1Q":null,"TRtn2":20.86,"TRtn2Q":null,"TSet":-3,"TSetQ":null,"VerSWMajor":"5167","VerSWMinor":null,"PctSucVlv":21,"PctSucVlvQ":null,"TSup1":21.08,"TSup1Q":null,"TSup2":20.88,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-02T11:27:53Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":66,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"1ed03290-d727-4d42-ad40-7f6ac8215f4d","EventDtm":"2025-11-26T12:58:57Z","AppDtm":"2025-11-26T12:59:57Z","Events":["ACPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:58:57Z","DeviceID":"JSGA622180044","GPSLockState":"LOCKED","GPSSatelliteCount":9,"GPSLastLock":0,"GPSLatitude":26.764448,"GPSLongitude":80.882937,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"54","LAC":"30917","CID":"234230140","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":31.3,"BatteryVoltage":7.9,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618581","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T12:58:57Z","AssetType":"Reefer","AssetID":"TRIU6618581","OEM":"CARRIER","TAmb":21.62,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":65.55,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04900648","AmpPhA":2.21,"AmpPhB":2.33,"AmpPhC":2.21,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":20.27,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":91.14,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":405.08,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":20.88,"TRtn1Q":null,"TRtn2":20.86,"TRtn2Q":null,"TSet":-3,"TSetQ":null,"VerSWMajor":"5167","VerSWMinor":null,"PctSucVlv":21,"PctSucVlvQ":null,"TSup1":21.08,"TSup1Q":null,"TSup2":20.88,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-02T11:27:53Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.677Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":67,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"6d716916-45ee-43b0-9bdf-bd9b8ab63b35","EventDtm":"2025-11-26T12:58:38Z","AppDtm":"2025-11-26T12:59:57Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T12:58:38Z","DeviceID":"JSGA623040321","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":12.81631,"GPSLongitude":77.687158,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9057","CID":"180498700","RSSI":"-57","ExtPower":true,"ExtPowerVoltage":29.9,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6617250","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":68,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"3d944db0-c2b6-4650-9e37-2204f5435eba","EventDtm":"2025-11-26T13:00:46Z","AppDtm":"2025-11-26T13:01:04Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T13:00:46Z","DeviceID":"JSGA623040164","GPSLockState":"LOCKED","GPSSatelliteCount":12,"GPSLastLock":0,"GPSLatitude":21.735686,"GPSLongitude":72.628815,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"98","LAC":"8405","CID":"246992643","RSSI":"-69","ExtPower":true,"ExtPowerVoltage":31.3,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1031878","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T13:00:46Z","AssetType":"Reefer","AssetID":"CCLU1031878","OEM":"CARRIER","TAmb":30.75,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":15,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":173.49,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04502009","AmpPhA":13.56,"AmpPhB":13.32,"AmpPhC":13.56,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":16.16,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":90.38,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":435.13,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.04,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":15.47,"TRtn1Q":null,"TRtn2":15.42,"TRtn2Q":null,"TSet":15,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":1.85,"PctSucVlvQ":null,"TSup1":14.96,"TSup1Q":null,"TSup2":15.13,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-03-09T09:34:16Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.678Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":69,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"9c05f916-fe24-4168-b974-4bfe9d76c4ad","EventDtm":"2025-11-26T13:02:23Z","AppDtm":"2025-11-26T13:02:39Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T13:02:23Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":26.606146,"GPSLongitude":80.723824,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":false,"ExtPowerVoltage":33.3,"BatteryVoltage":8,"DeviceTemp":20,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>{"Sequence":70,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e0de8327-5efb-406c-91ad-9e8a1712d534","EventDtm":"2025-11-26T13:03:23Z","AppDtm":"2025-11-26T13:03:40Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T13:03:23Z","DeviceID":"JSGA621320217","GPSLockState":"LOCKED","GPSSatelliteCount":18,"GPSLastLock":0,"GPSLatitude":26.644514,"GPSLongitude":88.468092,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"51","LAC":"41512","CID":"16323942","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":32.4,"BatteryVoltage":8.1,"DeviceTemp":29,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1036301","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T13:03:23Z","AssetType":"Reefer","AssetID":"CXRU1036301","OEM":"DAIKIN","TAmb":23.19,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-30,"PSucQ":"asProvided","TDis":93,"TDisQ":null,"FreqComp":null,"TSuc":-9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":810,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":12,"PctExpVlvQ":null,"TEvap":-1.19,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":407,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":1.38,"TRtn1Q":null,"TRtn2":2.2,"TRtn2Q":null,"TSet":0,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.98,"PctSucVlvQ":null,"TSup1":0.12,"TSup1Q":null,"TSup2":1.7,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-16T10:29:07Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.708Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":71,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"8d6e90c4-6c12-44b7-aa41-44cc1a5406f1","EventDtm":"2025-11-26T13:04:16Z","AppDtm":"2025-11-26T13:04:30Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T13:04:16Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":12.804964,"GPSLongitude":77.662282,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30,"BatteryVoltage":8,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T13:04:16Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":30.53,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":92.78,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.55,"AmpPhB":11.28,"AmpPhC":11.55,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.14,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":418.91,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.04,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.71,"TRtn1Q":null,"TRtn2":5.71,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.82,"PctSucVlvQ":null,"TSup1":5.03,"TSup1Q":null,"TSup2":4.95,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T13:08:47.709Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":72,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ec5d2f81-dee8-4a32-a5c3-73b6646a3445","EventDtm":"2025-11-26T13:05:42Z","AppDtm":"2025-11-26T13:05:57Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T13:05:42Z","DeviceID":"JSGA621320194","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":16.824947,"GPSLongitude":78.131509,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31204","CID":"255654657","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.5,"BatteryVoltage":8,"DeviceTemp":31,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1186425","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T13:05:42Z","AssetType":"Reefer","AssetID":"CXRU1186425","OEM":"DAIKIN","TAmb":26.81,"TAmbQ":null,"TUSDA4":-46.5,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-10,"PSucQ":"asProvided","TDis":66.9,"TDisQ":null,"FreqComp":null,"TSuc":-25.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":930,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":37,"PctExpVlvQ":null,"TEvap":9.38,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":395.1,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":5.12,"TRtn1Q":null,"TRtn2":4.9,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":10.37,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5.5,"TSup2Q":null,"AmpTotalDraw":15,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.5,"TUSDA1Q":"OOR","TUSDA2":-46.5,"TUSDA2Q":"OOR","TUSDA3":-46.5,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-30T05:28:13Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
   </si>
 </sst>
 </file>
@@ -852,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1481,7 +1565,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1508,12 +1592,12 @@
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1540,12 +1624,12 @@
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1572,12 +1656,12 @@
         <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1604,12 +1688,12 @@
         <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1636,12 +1720,12 @@
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1668,12 +1752,12 @@
         <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1700,12 +1784,12 @@
         <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1732,12 +1816,12 @@
         <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1764,12 +1848,12 @@
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1796,12 +1880,12 @@
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1828,12 +1912,12 @@
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -1860,12 +1944,12 @@
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1892,12 +1976,12 @@
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1924,12 +2008,12 @@
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -1956,12 +2040,12 @@
         <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -1988,12 +2072,12 @@
         <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -2020,12 +2104,12 @@
         <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -2052,12 +2136,12 @@
         <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2084,12 +2168,12 @@
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -2116,12 +2200,12 @@
         <v>11</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -2148,12 +2232,12 @@
         <v>11</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -2180,12 +2264,12 @@
         <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -2212,12 +2296,12 @@
         <v>11</v>
       </c>
       <c r="J42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -2244,12 +2328,12 @@
         <v>11</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -2276,12 +2360,12 @@
         <v>11</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -2308,12 +2392,12 @@
         <v>11</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -2340,12 +2424,12 @@
         <v>11</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -2372,12 +2456,12 @@
         <v>11</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -2404,12 +2488,12 @@
         <v>11</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -2436,12 +2520,12 @@
         <v>11</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -2665,103 +2749,103 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -2788,12 +2872,12 @@
         <v>11</v>
       </c>
       <c r="J60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -2820,12 +2904,12 @@
         <v>11</v>
       </c>
       <c r="J61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -2852,12 +2936,12 @@
         <v>11</v>
       </c>
       <c r="J62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -2884,12 +2968,12 @@
         <v>11</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -2916,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="J64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2948,12 +3032,12 @@
         <v>11</v>
       </c>
       <c r="J65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -2980,12 +3064,12 @@
         <v>11</v>
       </c>
       <c r="J66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -3012,12 +3096,12 @@
         <v>11</v>
       </c>
       <c r="J67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -3044,12 +3128,12 @@
         <v>11</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -3076,12 +3160,12 @@
         <v>11</v>
       </c>
       <c r="J69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -3108,12 +3192,12 @@
         <v>11</v>
       </c>
       <c r="J70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -3140,39 +3224,647 @@
         <v>11</v>
       </c>
       <c r="J71" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s">
         <v>149</v>
       </c>
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" t="s">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/logs/orbcomm/orbcomm_alerts_2025-11-26.xlsx
+++ b/logs/orbcomm/orbcomm_alerts_2025-11-26.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>Timestamp</t>
   </si>
@@ -43,79 +43,43 @@
     <t>Raw JSON</t>
   </si>
   <si>
-    <t>2025-11-26T06:23:54.029Z</t>
+    <t>2025-11-26T20:06:07.721Z</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"377e3016-aab0-4571-b2fe-86c23066f14f","EventDtm":"2025-11-26T06:19:10Z","AppDtm":"2025-11-26T06:19:27Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:19:10Z","DeviceID":"JSGA623040304","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":15.479479,"GPSLongitude":73.969728,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6934","CID":"242082151","RSSI":"-73","ExtPower":true,"ExtPowerVoltage":29.3,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681434","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:19:10Z","AssetType":"Reefer","AssetID":"TRIU6681434","OEM":"CARRIER","TAmb":28.82,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":149.28,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04959272","AmpPhA":10.95,"AmpPhB":10.1,"AmpPhC":10.95,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":5.92,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":87.66,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":418.95,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.06,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.52,"TRtn1Q":null,"TRtn2":5.54,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":4.32,"PctSucVlvQ":null,"TSup1":4.93,"TSup1Q":null,"TSup2":4.95,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-08-19T12:53:23Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:23:54.064Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"7d0f6bc2-ef73-4ce7-9a3b-fcaec9c62d5d","EventDtm":"2025-11-26T06:20:00Z","AppDtm":"2025-11-26T06:20:18Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:20:00Z","DeviceID":"JSGA623040302","GPSLockState":"LOCKED","GPSSatelliteCount":9,"GPSLastLock":0,"GPSLatitude":19.252891,"GPSLongitude":73.016492,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"90","LAC":"6253","CID":"249578853","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":28.8,"BatteryVoltage":8,"DeviceTemp":36,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6681882","LastAssetRunState":"Running"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:23:54.076Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"5df690e3-c988-4cfa-a976-9cc567914bfe","EventDtm":"2025-11-26T06:20:38Z","AppDtm":"2025-11-26T06:20:56Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:20:38Z","DeviceID":"JSGA622180052","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.547773,"GPSLongitude":78.380489,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.3,"BatteryVoltage":8.1,"DeviceTemp":35,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:23:54.083Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"da09b026-d1e9-4f2b-bed7-bf8ae52b61e4","EventDtm":"2025-11-26T06:21:24Z","AppDtm":"2025-11-26T06:21:42Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:21:24Z","DeviceID":"JSGA623040188","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":17.533223,"GPSLongitude":78.433006,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19315","CID":"244342551","RSSI":"-53","ExtPower":true,"ExtPowerVoltage":32.6,"BatteryVoltage":8.1,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"HDMU5221979","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:21:24Z","AssetType":"Reefer","AssetID":"HDMU5221979","OEM":"DAIKIN","TAmb":29.5,"TAmbQ":null,"TUSDA4":-46.3,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":250,"PSucQ":"asProvided","TDis":60.4,"TDisQ":null,"FreqComp":null,"TSuc":22.5,"TSucQ":null,"MCond":"Off","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":880,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":5,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"ThermoOff","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"Off","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":16.14,"PctHumQ":null,"PctHumSet":65,"PctHumSetQ":"off","FreqLine":50,"FreqLineQ":null,"VLine1":417.5,"VLine2":null,"VLine3":null,"MEvapFanLS":"On","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"FanReduction","TRtn1":5.88,"TRtn1Q":null,"TRtn2":136.4,"TRtn2Q":"OOR","TSet":5,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":156.1,"PctSucVlvQ":null,"TSup1":5.31,"TSup1Q":null,"TSup2":5.3,"TSup2Q":null,"AmpTotalDraw":0,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.3,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.3,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-02-13T11:13:57Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true},{"OemAlarm":404,"RCAlias":"E404","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:23:54.092Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"346f2372-6f7c-4b3b-ad27-1642ab900d2e","EventDtm":"2025-11-26T06:22:38Z","AppDtm":"2025-11-26T06:22:52Z","Events":["BatteryPowerOn"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:22:38Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":11,"GPSLastLock":0,"GPSLatitude":26.606096,"GPSLongitude":80.723681,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193709","RSSI":null,"ExtPower":false,"ExtPowerVoltage":7.4,"BatteryVoltage":8,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:55.125Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e532d4a3-e5b2-49ae-8a12-ee34c25cf343","EventDtm":"2025-11-26T06:23:57Z","AppDtm":"2025-11-26T06:24:20Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:23:57Z","DeviceID":"JSGA623040331","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":17.516213,"GPSLongitude":82.962446,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31843","CID":"240957964","RSSI":null,"ExtPower":true,"ExtPowerVoltage":30.7,"BatteryVoltage":8,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"BMOU9782197","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:23:57Z","AssetType":"Reefer","AssetID":"BMOU9782197","OEM":"DAIKIN","TAmb":30,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":70,"PSucQ":"asProvided","TDis":80.9,"TDisQ":null,"FreqComp":null,"TSuc":-10.1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":890,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":51,"PctExpVlvQ":null,"TEvap":22,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":60,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":388.6,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":24.7,"TRtn2Q":null,"TSet":23,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":11.59,"PctSucVlvQ":null,"TSup1":23.12,"TSup1Q":null,"TSup2":23.1,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-09-09T22:31:45Z","PTIResult":"Unknown","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:55.252Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ab192f4f-f7c0-4d98-ad7f-452ccf8c6411","EventDtm":"2025-11-26T06:24:09Z","AppDtm":"2025-11-26T06:24:26Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:24:09Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":12.805018,"GPSLongitude":77.662177,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.4,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:24:09Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":31.67,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":96.75,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":11.34,"AmpPhB":10.88,"AmpPhC":11.34,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.21,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.02,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.08,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.78,"TRtn1Q":null,"TRtn2":5.79,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":4.45,"PctSucVlvQ":null,"TSup1":5.09,"TSup1Q":null,"TSup2":5.01,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:55.255Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"d741fc33-787e-432a-9d9c-fc9ebd6d1ee0","EventDtm":"2025-11-26T06:24:48Z","AppDtm":"2025-11-26T06:25:05Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:24:48Z","DeviceID":"JSGA623040329","GPSLockState":"LOCKED","GPSSatelliteCount":8,"GPSLastLock":0,"GPSLatitude":17.547979,"GPSLongitude":78.380757,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"19392","CID":"232207115","RSSI":"-57","ExtPower":true,"ExtPowerVoltage":32.7,"BatteryVoltage":8,"DeviceTemp":27,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Offline"},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:55.257Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"55aea18d-368d-49db-bedf-3ee528427d83","EventDtm":"2025-11-26T06:24:46Z","AppDtm":"2025-11-26T06:25:11Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:24:46Z","DeviceID":"JSGA623040285","GPSLockState":"LOCKED","GPSSatelliteCount":17,"GPSLastLock":0,"GPSLatitude":17.515942,"GPSLongitude":82.981169,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31122","CID":"239136277","RSSI":"-67","ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":37,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6680994","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:24:46Z","AssetType":"Reefer","AssetID":"TRIU6680994","OEM":"CARRIER","TAmb":29.72,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":3,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":135.61,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04960884","AmpPhA":11.46,"AmpPhB":11.06,"AmpPhC":11.46,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":4.03,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.11,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":408.89,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":-0.02,"PctO2Q":"OOR","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":3.74,"TRtn1Q":null,"TRtn2":3.79,"TRtn2Q":null,"TSet":3,"TSetQ":null,"VerSWMajor":"5178","VerSWMinor":null,"PctSucVlv":5.36,"PctSucVlvQ":null,"TSup1":2.97,"TSup1Q":null,"TSup2":3.03,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2024-04-27T14:06:01Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:55.259Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"f9865f9d-ffa8-4490-bbed-b3f66812892c","EventDtm":"2025-11-26T08:08:00Z","AppDtm":"2025-11-26T06:26:20Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T08:08:00Z","DeviceID":"JSGA622180057","GPSLockState":"UNLOCKED","GPSSatelliteCount":255,"GPSLastLock":5217,"GPSLatitude":17.244358,"GPSLongitude":78.443679,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"32291","CID":"244550678","RSSI":"-77","ExtPower":true,"ExtPowerVoltage":33.8,"BatteryVoltage":8,"DeviceTemp":30,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:55.263Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"833f2347-12e0-4357-abda-7190da1df074","EventDtm":"2025-11-26T06:25:40Z","AppDtm":"2025-11-26T06:26:21Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:25:40Z","DeviceID":"JSGA622180045","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":26.310603,"GPSLongitude":91.717549,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"56","LAC":"7134","CID":"250551313","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.4,"BatteryVoltage":8,"DeviceTemp":39,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TDRU7151905","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:25:40Z","AssetType":"Reefer","AssetID":"TDRU7151905","OEM":"DAIKIN","TAmb":28.5,"TAmbQ":null,"TUSDA4":-46.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-10,"PSucQ":"asProvided","TDis":75.3,"TDisQ":null,"FreqComp":null,"TSuc":-25.1,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":980,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":86,"PctExpVlvQ":null,"TEvap":-0.06,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":75,"PctHumSetQ":"configured","FreqLine":50,"FreqLineQ":null,"VLine1":397.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":-0.06,"TRtn1Q":null,"TRtn2":5.3,"TRtn2Q":null,"TSet":4,"TSetQ":null,"VerSWMajor":"24C2","VerSWMinor":null,"PctSucVlv":93.6,"PctSucVlvQ":null,"TSup1":4.12,"TSup1Q":null,"TSup2":3.8,"TSup2Q":null,"AmpTotalDraw":11,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.4,"TUSDA1Q":"OOR","TUSDA2":-46.3,"TUSDA2Q":"OOR","TUSDA3":-46.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":[{"OemAlarm":403,"RCAlias":"E403","RCSeverity":"Minor","Active":true},{"OemAlarm":409,"RCAlias":"E409","RCSeverity":"Informational","Active":true}]}}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T06:30:55.266Z</t>
-  </si>
-  <si>
-    <t>{"Sequence":7,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"48ae452b-109c-4d14-a4a4-91018b6ce0ca","EventDtm":"2025-11-26T06:27:21Z","AppDtm":"2025-11-26T06:27:37Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T06:27:21Z","DeviceID":"JSGA623040313","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":28.364698,"GPSLongitude":75.581337,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"70","LAC":"1009","CID":"247299667","RSSI":"-83","ExtPower":true,"ExtPowerVoltage":33.7,"BatteryVoltage":8,"DeviceTemp":28,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"MORU0322200","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T06:27:21Z","AssetType":"Reefer","AssetID":"MORU0322200","OEM":"THERMOKING","TAmb":21,"TAmbQ":"asProvided","TUSDA4":3276.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":null,"PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":3276.6,"PSucQ":"unavailable","TDis":3276.6,"TDisQ":"OOR","FreqComp":50,"TSuc":3276.6,"TSucQ":"unavailable","MCond":null,"PCond":3276.6,"PCondQ":"unavailable","TCond":36,"TCondQ":"asProvided","MCtrl":"MaintainCool","SnCtrl":"E001083433","AmpPhA":5.7,"AmpPhB":6.4,"AmpPhC":6.5,"PDis":3276.6,"PDisQ":"unavailable","PctEconVlv":255,"PctEconVlvQ":"notUsed","PctExpVlv":255,"PctExpVlvQ":"notUsed","TEvap":16.9,"TEvapQ":"asProvided","MCtrl3":"Chilled","PctHtr":255,"PctHtrQ":"notUsed","MEvapFanHS":null,"PctGasVlv":255,"PctGasVlvQ":"notUsed","PctHum":255,"PctHumQ":"OOR","PctHumSet":255,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":388,"VLine2":null,"VLine3":null,"MEvapFanLS":null,"PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":null,"TRtn1":16.2,"TRtn1Q":"asProvided","TRtn2":3276.6,"TRtn2Q":"OOR","TSet":16,"TSetQ":null,"VerSWMajor":"12060800","VerSWMinor":null,"PctSucVlv":255,"PctSucVlvQ":"notUsed","TSup1":16,"TSup1Q":"asProvided","TSup2":16,"TSup2Q":"asProvided","AmpTotalDraw":5.4,"AmpTotalDrawQ":null,"TUSDA1":3276.4,"TUSDA1Q":"OOR","TUSDA2":3276.4,"TUSDA2Q":"OOR","TUSDA3":3276.4,"TUSDA3Q":"OOR","CmhVent":1275,"CmhVentQ":"OOR","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":null,"PTIResult":null,"TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+    <t>{"Sequence":1,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e96257f1-3a05-4a2f-9c4e-9dd7f68212d4","EventDtm":"2025-11-26T19:58:16Z","AppDtm":"2025-11-26T19:58:35Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T19:58:16Z","DeviceID":"JSGA622180044","GPSLockState":"UNLOCKED","GPSSatelliteCount":10,"GPSLastLock":147,"GPSLatitude":26.764466,"GPSLongitude":80.882968,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"54","LAC":"30917","CID":"234230120","RSSI":"-65","ExtPower":true,"ExtPowerVoltage":32.9,"BatteryVoltage":8.1,"DeviceTemp":34,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6618581","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T19:58:16Z","AssetType":"Reefer","AssetID":"TRIU6618581","OEM":"CARRIER","TAmb":16.86,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":0,"PctCO2Q":null,"PctCO2Set":5,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":104.95,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04900648","AmpPhA":11.75,"AmpPhB":12.34,"AmpPhC":11.75,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":-1.53,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":96.34,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":426.19,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0,"PctO2Q":"asProvided","PctO2Set":10,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":-2.35,"TRtn1Q":null,"TRtn2":-2.38,"TRtn2Q":null,"TSet":-3,"TSetQ":null,"VerSWMajor":"5167","VerSWMinor":null,"PctSucVlv":10.43,"PctSucVlvQ":null,"TSup1":-3.02,"TSup1Q":null,"TSup2":-2.91,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-02T11:27:53Z","PTIResult":"Skipped","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":[{"OemAlarm":52,"RCAlias":"AL52","RCSeverity":"Minor","Active":true},{"OemAlarm":60,"RCAlias":"AL60","RCSeverity":"Informational","Active":true}]}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T20:06:07.796Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":2,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"e7c568d3-aaad-49cf-ba88-7205b0f100b1","EventDtm":"2025-11-26T19:59:44Z","AppDtm":"2025-11-26T20:00:03Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T19:59:44Z","DeviceID":"JSGA623040321","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":12.816277,"GPSLongitude":77.68725,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9057","CID":"180498700","RSSI":"-55","ExtPower":true,"ExtPowerVoltage":31.8,"BatteryVoltage":8,"DeviceTemp":26,"RTDLOn":false,"VerFW":"W0206 1.41","DeviceType":"CT3500","DoorState":"Open","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"TRIU6617250","LastAssetRunState":"Running"},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T20:06:07.831Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":3,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"83568cd2-b74c-42b6-bc65-4b36a010fcce","EventDtm":"2025-11-26T20:03:56Z","AppDtm":"2025-11-26T20:04:10Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T20:03:56Z","DeviceID":"JSGA621320217","GPSLockState":"LOCKED","GPSSatelliteCount":14,"GPSLastLock":0,"GPSLatitude":26.644384,"GPSLongitude":88.468068,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"405","MNC":"51","LAC":"41512","CID":"16323842","RSSI":null,"ExtPower":true,"ExtPowerVoltage":33.7,"BatteryVoltage":8.1,"DeviceTemp":24,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1036301","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T20:03:56Z","AssetType":"Reefer","AssetID":"CXRU1036301","OEM":"DAIKIN","TAmb":18.81,"TAmbQ":null,"TUSDA4":-53.4,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":50,"PSucQ":"asProvided","TDis":77.2,"TDisQ":null,"FreqComp":null,"TSuc":-14.9,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":810,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":14,"PctExpVlvQ":null,"TEvap":-0.62,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":423.5,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":0.81,"TRtn1Q":null,"TRtn2":1.6,"TRtn2Q":null,"TSet":0,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":17.99,"PctSucVlvQ":null,"TSup1":0.12,"TSup1Q":null,"TSup2":1.8,"TSup2Q":null,"AmpTotalDraw":12,"AmpTotalDrawQ":"asProvided","TUSDA1":-53.4,"TUSDA1Q":"OOR","TUSDA2":-53.4,"TUSDA2Q":"OOR","TUSDA3":-53.4,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-07-16T10:29:07Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T20:06:08.393Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":4,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"925e9264-9281-4fb6-8fdb-2d25a0bbc0ef","EventDtm":"2025-11-26T20:04:16Z","AppDtm":"2025-11-26T20:04:33Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T20:04:16Z","DeviceID":"JSGA623040311","GPSLockState":"LOCKED","GPSSatelliteCount":10,"GPSLastLock":0,"GPSLatitude":26.606132,"GPSLongitude":80.723723,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"15","LAC":"55363","CID":"210193710","RSSI":"-79","ExtPower":true,"ExtPowerVoltage":34,"BatteryVoltage":8,"DeviceTemp":14,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":null,"LastAssetRunState":null},"ReeferData":null}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T20:06:08.953Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":5,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"5805fde2-4ad1-4c70-ae25-620c91b315cf","EventDtm":"2025-11-26T20:04:33Z","AppDtm":"2025-11-26T20:04:49Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T20:04:33Z","DeviceID":"JSGA622340343","GPSLockState":"LOCKED","GPSSatelliteCount":13,"GPSLastLock":0,"GPSLatitude":12.805029,"GPSLongitude":77.662178,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"45","LAC":"9003","CID":"46904076","RSSI":null,"ExtPower":true,"ExtPowerVoltage":29.7,"BatteryVoltage":8,"DeviceTemp":24,"RTDLOn":false,"VerFW":"W0206 1.75","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CCLU1035976","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T20:04:33Z","AssetType":"Reefer","AssetID":"CCLU1035976","OEM":"CARRIER","TAmb":28.31,"TAmbQ":null,"TUSDA4":-50,"TUSDA4Q":"OOR","PctCO2":5,"PctCO2Q":null,"PctCO2Set":1,"PctCO2SetQ":null,"PSuc":-14.73,"PSucQ":"OOR","TDis":-196.88,"TDisQ":"OOR","FreqComp":null,"TSuc":0,"TSucQ":null,"MCond":1,"PCond":149.42,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":"Cool","SnCtrl":"04904656","AmpPhA":10.18,"AmpPhB":11.1,"AmpPhC":10.18,"PDis":-14.6,"PDisQ":"OOR","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":0,"PctExpVlvQ":null,"TEvap":6.06,"TEvapQ":null,"MCtrl3":null,"PctHtr":null,"PctHtrQ":null,"MEvapFanHS":1,"PctGasVlv":null,"PctGasVlvQ":null,"PctHum":0,"PctHumQ":null,"PctHumSet":0,"PctHumSetQ":"OOR","FreqLine":50,"FreqLineQ":null,"VLine1":417.63,"VLine2":null,"VLine3":null,"MEvapFanLS":0,"PctO2":0.11,"PctO2Q":"unknown","PctO2Set":3,"PctO2SetQ":null,"MCtrl2":null,"TRtn1":5.61,"TRtn1Q":null,"TRtn2":5.63,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"5180","VerSWMinor":null,"PctSucVlv":3.75,"PctSucVlvQ":null,"TSup1":5.09,"TSup1Q":null,"TSup2":5.03,"TSup2Q":null,"AmpTotalDraw":null,"AmpTotalDrawQ":null,"TUSDA1":-50,"TUSDA1Q":"OOR","TUSDA2":-50,"TUSDA2Q":"OOR","TUSDA3":-50,"TUSDA3Q":"OOR","CmhVent":0,"CmhVentQ":null,"BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-05-12T10:01:32Z","PTIResult":"Failed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":null,"ReeferAlarms":null}}}</t>
+  </si>
+  <si>
+    <t>2025-11-26T20:07:04.694Z</t>
+  </si>
+  <si>
+    <t>{"Sequence":6,"Event":{"EventClass":"DeviceMessage","MessageData":{"MsgID":"ba8e354d-f391-48d1-b488-e8709d49fc2c","EventDtm":"2025-11-26T20:06:47Z","AppDtm":"2025-11-26T20:07:04Z","Events":["ScheduledReport"]},"DeviceData":{"DeviceDataDtm":"2025-11-26T20:06:47Z","DeviceID":"JSGA621320194","GPSLockState":"LOCKED","GPSSatelliteCount":15,"GPSLastLock":0,"GPSLatitude":16.824892,"GPSLongitude":78.131558,"GeofenceCode":null,"ServerGeofenceCode":null,"MCC":"404","MNC":"49","LAC":"31204","CID":"255654657","RSSI":null,"ExtPower":true,"ExtPowerVoltage":31.5,"BatteryVoltage":8,"DeviceTemp":25,"RTDLOn":false,"VerFW":"W0206 1.91","DeviceType":"CT3500","DoorState":"Disconnected","DoorStateDtm":null,"DoorSensorBatteryVoltage":null,"LastAssetID":"CXRU1186425","LastAssetRunState":"Running"},"ReeferData":{"ReeferDataDtm":"2025-11-26T20:06:47Z","AssetType":"Reefer","AssetID":"CXRU1186425","OEM":"DAIKIN","TAmb":20.62,"TAmbQ":null,"TUSDA4":-46.5,"TUSDA4Q":"OOR","PctCO2":25.5,"PctCO2Q":"OOR","PctCO2Set":25.5,"PctCO2SetQ":"OOR","PSuc":-20,"PSucQ":"asProvided","TDis":57.6,"TDisQ":null,"FreqComp":null,"TSuc":-28.3,"TSucQ":null,"MCond":"On","PCond":null,"PCondQ":null,"TCond":null,"TCondQ":null,"MCtrl":null,"SnCtrl":null,"AmpPhA":null,"AmpPhB":null,"AmpPhC":null,"PDis":800,"PDisQ":"asProvided","PctEconVlv":0,"PctEconVlvQ":null,"PctExpVlv":37,"PctExpVlvQ":null,"TEvap":9.62,"TEvapQ":null,"MCtrl3":"Modulation","PctHtr":null,"PctHtrQ":null,"MEvapFanHS":"On","PctGasVlv":0,"PctGasVlvQ":null,"PctHum":100.39,"PctHumQ":"OOR","PctHumSet":65,"PctHumSetQ":"off","FreqLine":null,"FreqLineQ":null,"VLine1":395.8,"VLine2":null,"VLine3":null,"MEvapFanLS":"Off","PctO2":25.5,"PctO2Q":"OOR","PctO2Set":25.5,"PctO2SetQ":"OOR","MCtrl2":"Modulation","TRtn1":4.62,"TRtn1Q":null,"TRtn2":4.4,"TRtn2Q":null,"TSet":5,"TSetQ":null,"VerSWMajor":"265A","VerSWMinor":null,"PctSucVlv":9.45,"PctSucVlvQ":null,"TSup1":5.12,"TSup1Q":null,"TSup2":5.5,"TSup2Q":null,"AmpTotalDraw":16,"AmpTotalDrawQ":"asProvided","TUSDA1":-46.5,"TUSDA1Q":"OOR","TUSDA2":-46.5,"TUSDA2Q":"OOR","TUSDA3":-46.5,"TUSDA3Q":"OOR","CmhVent":1020,"CmhVentQ":"error","BkNum":null,"TBk":null,"TBkQ":null,"PTIDtm":"2025-06-30T05:28:13Z","PTIResult":"Passed","TWResult":null,"TWExpiration":null,"TWExpirationQ":null,"AtmosMode":"UnitOff","ReeferAlarms":null}}}</t>
   </si>
 </sst>
 </file>
@@ -504,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -747,198 +711,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
